--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -7352,28 +7352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>13705.2295320378</v>
+        <v>13924.57975088341</v>
       </c>
       <c r="AB2" t="n">
-        <v>18752.09967778935</v>
+        <v>19052.22432426263</v>
       </c>
       <c r="AC2" t="n">
-        <v>16962.42560327762</v>
+        <v>17233.90677471906</v>
       </c>
       <c r="AD2" t="n">
-        <v>13705229.5320378</v>
+        <v>13924579.75088342</v>
       </c>
       <c r="AE2" t="n">
-        <v>18752099.67778935</v>
+        <v>19052224.32426263</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.305049455684169e-07</v>
+        <v>7.965468617082022e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.303125</v>
       </c>
       <c r="AH2" t="n">
-        <v>16962425.60327762</v>
+        <v>17233906.77471906</v>
       </c>
     </row>
     <row r="3">
@@ -7458,28 +7458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4569.987047747242</v>
+        <v>4691.857713029453</v>
       </c>
       <c r="AB3" t="n">
-        <v>6252.857892327507</v>
+        <v>6419.606713120932</v>
       </c>
       <c r="AC3" t="n">
-        <v>5656.093911024705</v>
+        <v>5806.928458395038</v>
       </c>
       <c r="AD3" t="n">
-        <v>4569987.047747242</v>
+        <v>4691857.713029454</v>
       </c>
       <c r="AE3" t="n">
-        <v>6252857.892327507</v>
+        <v>6419606.713120932</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.102421103649568e-07</v>
+        <v>1.499160037250883e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.75520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>5656093.911024705</v>
+        <v>5806928.458395038</v>
       </c>
     </row>
     <row r="4">
@@ -7564,28 +7564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3528.904690429449</v>
+        <v>3626.384243992854</v>
       </c>
       <c r="AB4" t="n">
-        <v>4828.403081733146</v>
+        <v>4961.778907412991</v>
       </c>
       <c r="AC4" t="n">
-        <v>4367.587068318638</v>
+        <v>4488.233692389743</v>
       </c>
       <c r="AD4" t="n">
-        <v>3528904.690429449</v>
+        <v>3626384.243992854</v>
       </c>
       <c r="AE4" t="n">
-        <v>4828403.081733146</v>
+        <v>4961778.907412992</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.495617386326079e-07</v>
+        <v>1.756937825435001e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.00416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>4367587.068318638</v>
+        <v>4488233.692389742</v>
       </c>
     </row>
     <row r="5">
@@ -7670,28 +7670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3109.300448001668</v>
+        <v>3206.779912056522</v>
       </c>
       <c r="AB5" t="n">
-        <v>4254.282045610731</v>
+        <v>4387.657748821031</v>
       </c>
       <c r="AC5" t="n">
-        <v>3848.259338099835</v>
+        <v>3968.905851389713</v>
       </c>
       <c r="AD5" t="n">
-        <v>3109300.448001668</v>
+        <v>3206779.912056522</v>
       </c>
       <c r="AE5" t="n">
-        <v>4254282.045610731</v>
+        <v>4387657.748821031</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.023525143377842e-06</v>
+        <v>1.893789488900287e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.846875</v>
       </c>
       <c r="AH5" t="n">
-        <v>3848259.338099835</v>
+        <v>3968905.851389713</v>
       </c>
     </row>
     <row r="6">
@@ -7776,28 +7776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2898.756362105662</v>
+        <v>2984.040315055388</v>
       </c>
       <c r="AB6" t="n">
-        <v>3966.206338738281</v>
+        <v>4082.895605626567</v>
       </c>
       <c r="AC6" t="n">
-        <v>3587.677172374508</v>
+        <v>3693.229779405386</v>
       </c>
       <c r="AD6" t="n">
-        <v>2898756.362105662</v>
+        <v>2984040.315055388</v>
       </c>
       <c r="AE6" t="n">
-        <v>3966206.338738281</v>
+        <v>4082895.605626567</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.06889520033202e-06</v>
+        <v>1.977735972801084e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.21770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3587677.172374508</v>
+        <v>3693229.779405386</v>
       </c>
     </row>
     <row r="7">
@@ -7882,28 +7882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2749.493852141213</v>
+        <v>2834.86305643696</v>
       </c>
       <c r="AB7" t="n">
-        <v>3761.978787607718</v>
+        <v>3878.784699148653</v>
       </c>
       <c r="AC7" t="n">
-        <v>3402.940812088685</v>
+        <v>3508.598931370275</v>
       </c>
       <c r="AD7" t="n">
-        <v>2749493.852141213</v>
+        <v>2834863.05643696</v>
       </c>
       <c r="AE7" t="n">
-        <v>3761978.787607717</v>
+        <v>3878784.699148653</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.10055212110069e-06</v>
+        <v>2.036309564461768e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.80833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3402940.812088685</v>
+        <v>3508598.931370275</v>
       </c>
     </row>
     <row r="8">
@@ -7988,28 +7988,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2651.544828169656</v>
+        <v>2736.914032465404</v>
       </c>
       <c r="AB8" t="n">
-        <v>3627.960611803863</v>
+        <v>3744.766523344798</v>
       </c>
       <c r="AC8" t="n">
-        <v>3281.713142887865</v>
+        <v>3387.371262169455</v>
       </c>
       <c r="AD8" t="n">
-        <v>2651544.828169656</v>
+        <v>2736914.032465403</v>
       </c>
       <c r="AE8" t="n">
-        <v>3627960.611803863</v>
+        <v>3744766.523344798</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.124039513929059e-06</v>
+        <v>2.079767390532598e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.51875</v>
       </c>
       <c r="AH8" t="n">
-        <v>3281713.142887865</v>
+        <v>3387371.262169455</v>
       </c>
     </row>
     <row r="9">
@@ -8094,28 +8094,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2581.876381919173</v>
+        <v>2667.074994014327</v>
       </c>
       <c r="AB9" t="n">
-        <v>3532.637170089019</v>
+        <v>3649.209669855107</v>
       </c>
       <c r="AC9" t="n">
-        <v>3195.487236662997</v>
+        <v>3300.934220661936</v>
       </c>
       <c r="AD9" t="n">
-        <v>2581876.381919173</v>
+        <v>2667074.994014327</v>
       </c>
       <c r="AE9" t="n">
-        <v>3532637.170089019</v>
+        <v>3649209.669855107</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.140670338664674e-06</v>
+        <v>2.110538770483373e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.321875</v>
       </c>
       <c r="AH9" t="n">
-        <v>3195487.236662997</v>
+        <v>3300934.220661936</v>
       </c>
     </row>
     <row r="10">
@@ -8200,28 +8200,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2524.015864308078</v>
+        <v>2597.189557498698</v>
       </c>
       <c r="AB10" t="n">
-        <v>3453.469857267632</v>
+        <v>3553.589332486554</v>
       </c>
       <c r="AC10" t="n">
-        <v>3123.875541065266</v>
+        <v>3214.439754087855</v>
       </c>
       <c r="AD10" t="n">
-        <v>2524015.864308078</v>
+        <v>2597189.557498698</v>
       </c>
       <c r="AE10" t="n">
-        <v>3453469.857267632</v>
+        <v>3553589.332486554</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.154383474850181e-06</v>
+        <v>2.135911662723485e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.16354166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>3123875.541065266</v>
+        <v>3214439.754087856</v>
       </c>
     </row>
     <row r="11">
@@ -8306,28 +8306,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2475.435906839522</v>
+        <v>2548.609600030142</v>
       </c>
       <c r="AB11" t="n">
-        <v>3387.000616262686</v>
+        <v>3487.120091481608</v>
       </c>
       <c r="AC11" t="n">
-        <v>3063.750031131669</v>
+        <v>3154.314244154259</v>
       </c>
       <c r="AD11" t="n">
-        <v>2475435.906839522</v>
+        <v>2548609.600030142</v>
       </c>
       <c r="AE11" t="n">
-        <v>3387000.616262686</v>
+        <v>3487120.091481608</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.165324806913085e-06</v>
+        <v>2.156155991638468e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13.04166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>3063750.031131669</v>
+        <v>3154314.244154259</v>
       </c>
     </row>
     <row r="12">
@@ -8412,28 +8412,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2422.794846754462</v>
+        <v>2508.078710195637</v>
       </c>
       <c r="AB12" t="n">
-        <v>3314.974795494635</v>
+        <v>3431.663939913373</v>
       </c>
       <c r="AC12" t="n">
-        <v>2998.59825360885</v>
+        <v>3104.1507498585</v>
       </c>
       <c r="AD12" t="n">
-        <v>2422794.846754462</v>
+        <v>2508078.710195637</v>
       </c>
       <c r="AE12" t="n">
-        <v>3314974.795494635</v>
+        <v>3431663.939913373</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.174807294700936e-06</v>
+        <v>2.17370107669812e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.93541666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2998598.253608849</v>
+        <v>3104150.7498585</v>
       </c>
     </row>
     <row r="13">
@@ -8518,28 +8518,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2388.708776036695</v>
+        <v>2473.99263947787</v>
       </c>
       <c r="AB13" t="n">
-        <v>3268.336729767275</v>
+        <v>3385.025874186012</v>
       </c>
       <c r="AC13" t="n">
-        <v>2956.411259417573</v>
+        <v>3061.963755667224</v>
       </c>
       <c r="AD13" t="n">
-        <v>2388708.776036695</v>
+        <v>2473992.63947787</v>
       </c>
       <c r="AE13" t="n">
-        <v>3268336.729767275</v>
+        <v>3385025.874186012</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.182101516076206e-06</v>
+        <v>2.187197295974776e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.85520833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2956411.259417573</v>
+        <v>3061963.755667224</v>
       </c>
     </row>
     <row r="14">
@@ -8624,28 +8624,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2355.999033647456</v>
+        <v>2441.282897088631</v>
       </c>
       <c r="AB14" t="n">
-        <v>3223.581817178327</v>
+        <v>3340.270961597064</v>
       </c>
       <c r="AC14" t="n">
-        <v>2915.927692872202</v>
+        <v>3021.480189121853</v>
       </c>
       <c r="AD14" t="n">
-        <v>2355999.033647456</v>
+        <v>2441282.897088631</v>
       </c>
       <c r="AE14" t="n">
-        <v>3223581.817178327</v>
+        <v>3340270.961597065</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.188520430886443e-06</v>
+        <v>2.199073968938232e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.78541666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>2915927.692872202</v>
+        <v>3021480.189121853</v>
       </c>
     </row>
     <row r="15">
@@ -8730,28 +8730,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2326.065283798518</v>
+        <v>2411.349147239694</v>
       </c>
       <c r="AB15" t="n">
-        <v>3182.625140051167</v>
+        <v>3299.314284469905</v>
       </c>
       <c r="AC15" t="n">
-        <v>2878.879863527002</v>
+        <v>2984.432359776653</v>
       </c>
       <c r="AD15" t="n">
-        <v>2326065.283798518</v>
+        <v>2411349.147239693</v>
       </c>
       <c r="AE15" t="n">
-        <v>3182625.140051167</v>
+        <v>3299314.284469904</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.194501692414164e-06</v>
+        <v>2.21014086874509e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.721875</v>
       </c>
       <c r="AH15" t="n">
-        <v>2878879.863527002</v>
+        <v>2984432.359776653</v>
       </c>
     </row>
     <row r="16">
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2297.480074819091</v>
+        <v>2382.763938260267</v>
       </c>
       <c r="AB16" t="n">
-        <v>3143.513596035095</v>
+        <v>3260.202740453833</v>
       </c>
       <c r="AC16" t="n">
-        <v>2843.501070378429</v>
+        <v>2949.05356662808</v>
       </c>
       <c r="AD16" t="n">
-        <v>2297480.07481909</v>
+        <v>2382763.938260267</v>
       </c>
       <c r="AE16" t="n">
-        <v>3143513.596035095</v>
+        <v>3260202.740453833</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.199315878521842e-06</v>
+        <v>2.219048373467682e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.67083333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>2843501.070378429</v>
+        <v>2949053.56662808</v>
       </c>
     </row>
     <row r="17">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2272.596581545052</v>
+        <v>2357.880444986228</v>
       </c>
       <c r="AB17" t="n">
-        <v>3109.466902755307</v>
+        <v>3226.156047174045</v>
       </c>
       <c r="AC17" t="n">
-        <v>2812.703745720431</v>
+        <v>2918.256241970083</v>
       </c>
       <c r="AD17" t="n">
-        <v>2272596.581545052</v>
+        <v>2357880.444986228</v>
       </c>
       <c r="AE17" t="n">
-        <v>3109466.902755307</v>
+        <v>3226156.047174045</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.203546526919498e-06</v>
+        <v>2.226876180648143e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.62708333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>2812703.745720432</v>
+        <v>2918256.241970083</v>
       </c>
     </row>
     <row r="18">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2250.492608305527</v>
+        <v>2335.776471746702</v>
       </c>
       <c r="AB18" t="n">
-        <v>3079.223271410512</v>
+        <v>3195.912415829249</v>
       </c>
       <c r="AC18" t="n">
-        <v>2785.346524103981</v>
+        <v>2890.899020353631</v>
       </c>
       <c r="AD18" t="n">
-        <v>2250492.608305527</v>
+        <v>2335776.471746702</v>
       </c>
       <c r="AE18" t="n">
-        <v>3079223.271410512</v>
+        <v>3195912.415829249</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.206901868752123e-06</v>
+        <v>2.233084441515404e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.59166666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>2785346.524103981</v>
+        <v>2890899.020353632</v>
       </c>
     </row>
     <row r="19">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2226.898133546958</v>
+        <v>2312.181996988134</v>
       </c>
       <c r="AB19" t="n">
-        <v>3046.940270131073</v>
+        <v>3163.629414549811</v>
       </c>
       <c r="AC19" t="n">
-        <v>2756.144567157176</v>
+        <v>2861.697063406828</v>
       </c>
       <c r="AD19" t="n">
-        <v>2226898.133546958</v>
+        <v>2312181.996988134</v>
       </c>
       <c r="AE19" t="n">
-        <v>3046940.270131073</v>
+        <v>3163629.414549811</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.210548979439757e-06</v>
+        <v>2.239832551153732e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.553125</v>
       </c>
       <c r="AH19" t="n">
-        <v>2756144.567157176</v>
+        <v>2861697.063406827</v>
       </c>
     </row>
     <row r="20">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2204.516155460869</v>
+        <v>2277.77509999751</v>
       </c>
       <c r="AB20" t="n">
-        <v>3016.316260290501</v>
+        <v>3116.552380162072</v>
       </c>
       <c r="AC20" t="n">
-        <v>2728.443269834722</v>
+        <v>2819.112995108024</v>
       </c>
       <c r="AD20" t="n">
-        <v>2204516.155460869</v>
+        <v>2277775.09999751</v>
       </c>
       <c r="AE20" t="n">
-        <v>3016316.260290501</v>
+        <v>3116552.380162071</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.213612552417371e-06</v>
+        <v>2.245500963249927e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.521875</v>
       </c>
       <c r="AH20" t="n">
-        <v>2728443.269834722</v>
+        <v>2819112.995108024</v>
       </c>
     </row>
     <row r="21">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2186.49114941654</v>
+        <v>2259.579501752591</v>
       </c>
       <c r="AB21" t="n">
-        <v>2991.653651813333</v>
+        <v>3091.656359910232</v>
       </c>
       <c r="AC21" t="n">
-        <v>2706.134426096541</v>
+        <v>2796.593016087237</v>
       </c>
       <c r="AD21" t="n">
-        <v>2186491.14941654</v>
+        <v>2259579.501752591</v>
       </c>
       <c r="AE21" t="n">
-        <v>2991653.651813333</v>
+        <v>3091656.359910232</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.216238472112468e-06</v>
+        <v>2.250359602189523e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.49479166666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>2706134.426096541</v>
+        <v>2796593.016087237</v>
       </c>
     </row>
     <row r="22">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2159.152675544107</v>
+        <v>2232.241027880158</v>
       </c>
       <c r="AB22" t="n">
-        <v>2954.247945772725</v>
+        <v>3054.250653869621</v>
       </c>
       <c r="AC22" t="n">
-        <v>2672.298668141209</v>
+        <v>2762.757258131905</v>
       </c>
       <c r="AD22" t="n">
-        <v>2159152.675544107</v>
+        <v>2232241.027880158</v>
       </c>
       <c r="AE22" t="n">
-        <v>2954247.945772725</v>
+        <v>3054250.653869621</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.219156160662576e-06</v>
+        <v>2.255758089900185e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.465625</v>
       </c>
       <c r="AH22" t="n">
-        <v>2672298.668141209</v>
+        <v>2762757.258131905</v>
       </c>
     </row>
     <row r="23">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2147.415862359497</v>
+        <v>2220.504214695547</v>
       </c>
       <c r="AB23" t="n">
-        <v>2938.189120181888</v>
+        <v>3038.191828278783</v>
       </c>
       <c r="AC23" t="n">
-        <v>2657.772474326058</v>
+        <v>2748.231064316753</v>
       </c>
       <c r="AD23" t="n">
-        <v>2147415.862359497</v>
+        <v>2220504.214695548</v>
       </c>
       <c r="AE23" t="n">
-        <v>2938189.120181887</v>
+        <v>3038191.828278783</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.220323236082619e-06</v>
+        <v>2.25791748498445e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.45208333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>2657772.474326058</v>
+        <v>2748231.064316753</v>
       </c>
     </row>
     <row r="24">
@@ -9684,28 +9684,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>2120.718786440636</v>
+        <v>2193.807138776686</v>
       </c>
       <c r="AB24" t="n">
-        <v>2901.661003117836</v>
+        <v>3001.66371121473</v>
       </c>
       <c r="AC24" t="n">
-        <v>2624.730549487066</v>
+        <v>2715.189139477761</v>
       </c>
       <c r="AD24" t="n">
-        <v>2120718.786440636</v>
+        <v>2193807.138776687</v>
       </c>
       <c r="AE24" t="n">
-        <v>2901661.003117836</v>
+        <v>3001663.71121473</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.223240924632727e-06</v>
+        <v>2.263315972695112e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.42291666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>2624730.549487066</v>
+        <v>2715189.139477761</v>
       </c>
     </row>
     <row r="25">
@@ -9790,28 +9790,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>2108.535552990282</v>
+        <v>2181.623905326331</v>
       </c>
       <c r="AB25" t="n">
-        <v>2884.991365624737</v>
+        <v>2984.994073721454</v>
       </c>
       <c r="AC25" t="n">
-        <v>2609.651838800324</v>
+        <v>2700.110428790973</v>
       </c>
       <c r="AD25" t="n">
-        <v>2108535.552990282</v>
+        <v>2181623.905326331</v>
       </c>
       <c r="AE25" t="n">
-        <v>2884991.365624737</v>
+        <v>2984994.073721454</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.224845653335286e-06</v>
+        <v>2.266285140935976e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.40729166666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>2609651.838800324</v>
+        <v>2700110.428790973</v>
       </c>
     </row>
     <row r="26">
@@ -9896,28 +9896,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>2092.527837556364</v>
+        <v>2165.616189892412</v>
       </c>
       <c r="AB26" t="n">
-        <v>2863.088903157487</v>
+        <v>2963.091611254204</v>
       </c>
       <c r="AC26" t="n">
-        <v>2589.839716610649</v>
+        <v>2680.298306601299</v>
       </c>
       <c r="AD26" t="n">
-        <v>2092527.837556364</v>
+        <v>2165616.189892413</v>
       </c>
       <c r="AE26" t="n">
-        <v>2863088.903157487</v>
+        <v>2963091.611254204</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.225720959900318e-06</v>
+        <v>2.267904687249175e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12.39791666666667</v>
       </c>
       <c r="AH26" t="n">
-        <v>2589839.716610649</v>
+        <v>2680298.306601299</v>
       </c>
     </row>
     <row r="27">
@@ -10002,28 +10002,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>2081.970869633318</v>
+        <v>2155.059221969367</v>
       </c>
       <c r="AB27" t="n">
-        <v>2848.644393904621</v>
+        <v>2948.647102001338</v>
       </c>
       <c r="AC27" t="n">
-        <v>2576.773771047881</v>
+        <v>2667.23236103853</v>
       </c>
       <c r="AD27" t="n">
-        <v>2081970.869633318</v>
+        <v>2155059.221969367</v>
       </c>
       <c r="AE27" t="n">
-        <v>2848644.393904621</v>
+        <v>2948647.102001338</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.227471573030383e-06</v>
+        <v>2.271143779875572e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>12.38020833333333</v>
       </c>
       <c r="AH27" t="n">
-        <v>2576773.771047881</v>
+        <v>2667232.36103853</v>
       </c>
     </row>
     <row r="28">
@@ -10108,28 +10108,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>2087.361025586853</v>
+        <v>2160.449377922901</v>
       </c>
       <c r="AB28" t="n">
-        <v>2856.019443077144</v>
+        <v>2956.022151173862</v>
       </c>
       <c r="AC28" t="n">
-        <v>2583.444955878325</v>
+        <v>2673.903545868974</v>
       </c>
       <c r="AD28" t="n">
-        <v>2087361.025586852</v>
+        <v>2160449.3779229</v>
       </c>
       <c r="AE28" t="n">
-        <v>2856019.443077144</v>
+        <v>2956022.151173862</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.227325688602878e-06</v>
+        <v>2.270873855490039e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>12.38125</v>
       </c>
       <c r="AH28" t="n">
-        <v>2583444.955878325</v>
+        <v>2673903.545868974</v>
       </c>
     </row>
     <row r="29">
@@ -10214,28 +10214,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>2092.401289601323</v>
+        <v>2165.489641937371</v>
       </c>
       <c r="AB29" t="n">
-        <v>2862.915754662497</v>
+        <v>2962.918462759214</v>
       </c>
       <c r="AC29" t="n">
-        <v>2589.683093165006</v>
+        <v>2680.141683155656</v>
       </c>
       <c r="AD29" t="n">
-        <v>2092401.289601323</v>
+        <v>2165489.641937371</v>
       </c>
       <c r="AE29" t="n">
-        <v>2862915.754662497</v>
+        <v>2962918.462759214</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.227325688602878e-06</v>
+        <v>2.270873855490039e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>12.38229166666667</v>
       </c>
       <c r="AH29" t="n">
-        <v>2589683.093165006</v>
+        <v>2680141.683155656</v>
       </c>
     </row>
     <row r="30">
@@ -10320,28 +10320,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>2097.644091007312</v>
+        <v>2170.732443343361</v>
       </c>
       <c r="AB30" t="n">
-        <v>2870.089186842246</v>
+        <v>2970.091894938963</v>
       </c>
       <c r="AC30" t="n">
-        <v>2596.171903045495</v>
+        <v>2686.630493036144</v>
       </c>
       <c r="AD30" t="n">
-        <v>2097644.091007312</v>
+        <v>2170732.44334336</v>
       </c>
       <c r="AE30" t="n">
-        <v>2870089.186842246</v>
+        <v>2970091.894938963</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.22820099516791e-06</v>
+        <v>2.272493401803238e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>12.37291666666667</v>
       </c>
       <c r="AH30" t="n">
-        <v>2596171.903045495</v>
+        <v>2686630.493036144</v>
       </c>
     </row>
     <row r="31">
@@ -10426,28 +10426,28 @@
         <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>2106.910740017398</v>
+        <v>2179.999092353447</v>
       </c>
       <c r="AB31" t="n">
-        <v>2882.768224833548</v>
+        <v>2982.770932930266</v>
       </c>
       <c r="AC31" t="n">
-        <v>2607.640871446049</v>
+        <v>2698.099461436698</v>
       </c>
       <c r="AD31" t="n">
-        <v>2106910.740017398</v>
+        <v>2179999.092353447</v>
       </c>
       <c r="AE31" t="n">
-        <v>2882768.224833548</v>
+        <v>2982770.932930266</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.22820099516791e-06</v>
+        <v>2.272493401803238e-06</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>12.37291666666667</v>
       </c>
       <c r="AH31" t="n">
-        <v>2607640.871446049</v>
+        <v>2698099.461436698</v>
       </c>
     </row>
   </sheetData>
@@ -10723,28 +10723,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8245.31975857555</v>
+        <v>8421.604758857166</v>
       </c>
       <c r="AB2" t="n">
-        <v>11281.61025151872</v>
+        <v>11522.81116604937</v>
       </c>
       <c r="AC2" t="n">
-        <v>10204.90920295278</v>
+        <v>10423.09024072823</v>
       </c>
       <c r="AD2" t="n">
-        <v>8245319.758575549</v>
+        <v>8421604.758857166</v>
       </c>
       <c r="AE2" t="n">
-        <v>11281610.25151872</v>
+        <v>11522811.16604937</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.653290854436083e-07</v>
+        <v>1.077604485449287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.80520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>10204909.20295278</v>
+        <v>10423090.24072823</v>
       </c>
     </row>
     <row r="3">
@@ -10829,28 +10829,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3590.984420082168</v>
+        <v>3696.68723707603</v>
       </c>
       <c r="AB3" t="n">
-        <v>4913.343306608379</v>
+        <v>5057.970564098558</v>
       </c>
       <c r="AC3" t="n">
-        <v>4444.420717346131</v>
+        <v>4575.244952367073</v>
       </c>
       <c r="AD3" t="n">
-        <v>3590984.420082168</v>
+        <v>3696687.23707603</v>
       </c>
       <c r="AE3" t="n">
-        <v>4913343.306608379</v>
+        <v>5057970.564098557</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.140945730197371e-07</v>
+        <v>1.742405330583644e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.19791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4444420.717346131</v>
+        <v>4575244.952367073</v>
       </c>
     </row>
     <row r="4">
@@ -10935,28 +10935,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2892.337118435876</v>
+        <v>2974.683192873447</v>
       </c>
       <c r="AB4" t="n">
-        <v>3957.423246352237</v>
+        <v>4070.09277825014</v>
       </c>
       <c r="AC4" t="n">
-        <v>3579.73232599864</v>
+        <v>3681.648835904884</v>
       </c>
       <c r="AD4" t="n">
-        <v>2892337.118435876</v>
+        <v>2974683.192873447</v>
       </c>
       <c r="AE4" t="n">
-        <v>3957423.246352237</v>
+        <v>4070092.77825014</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.03935435436469e-06</v>
+        <v>1.981169805469631e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.12604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3579732.32599864</v>
+        <v>3681648.835904884</v>
       </c>
     </row>
     <row r="5">
@@ -11041,28 +11041,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2599.088232448644</v>
+        <v>2681.348966031645</v>
       </c>
       <c r="AB5" t="n">
-        <v>3556.187183316698</v>
+        <v>3668.739948092403</v>
       </c>
       <c r="AC5" t="n">
-        <v>3216.789669680877</v>
+        <v>3318.600556555182</v>
       </c>
       <c r="AD5" t="n">
-        <v>2599088.232448644</v>
+        <v>2681348.966031644</v>
       </c>
       <c r="AE5" t="n">
-        <v>3556187.183316698</v>
+        <v>3668739.948092403</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.105455299219015e-06</v>
+        <v>2.107168407879345e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.22083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3216789.669680877</v>
+        <v>3318600.556555182</v>
       </c>
     </row>
     <row r="6">
@@ -11147,28 +11147,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2431.08607815</v>
+        <v>2513.432063079021</v>
       </c>
       <c r="AB6" t="n">
-        <v>3326.319224073326</v>
+        <v>3438.988633501679</v>
       </c>
       <c r="AC6" t="n">
-        <v>3008.859985845994</v>
+        <v>3110.776384971011</v>
       </c>
       <c r="AD6" t="n">
-        <v>2431086.07815</v>
+        <v>2513432.063079021</v>
       </c>
       <c r="AE6" t="n">
-        <v>3326319.224073326</v>
+        <v>3438988.63350168</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.145749710808295e-06</v>
+        <v>2.183975775101705e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.72083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3008859.985845994</v>
+        <v>3110776.384971011</v>
       </c>
     </row>
     <row r="7">
@@ -11253,28 +11253,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2327.761822839537</v>
+        <v>2409.937215567965</v>
       </c>
       <c r="AB7" t="n">
-        <v>3184.946419613108</v>
+        <v>3297.382417266615</v>
       </c>
       <c r="AC7" t="n">
-        <v>2880.979603425489</v>
+        <v>2982.684867267854</v>
       </c>
       <c r="AD7" t="n">
-        <v>2327761.822839537</v>
+        <v>2409937.215567965</v>
       </c>
       <c r="AE7" t="n">
-        <v>3184946.419613109</v>
+        <v>3297382.417266616</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.173065398065448e-06</v>
+        <v>2.236043690709372e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.40104166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2880979.603425489</v>
+        <v>2982684.867267855</v>
       </c>
     </row>
     <row r="8">
@@ -11359,28 +11359,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2252.500283167179</v>
+        <v>2323.082645472034</v>
       </c>
       <c r="AB8" t="n">
-        <v>3081.970260728589</v>
+        <v>3178.544162708154</v>
       </c>
       <c r="AC8" t="n">
-        <v>2787.831344616964</v>
+        <v>2875.188368933919</v>
       </c>
       <c r="AD8" t="n">
-        <v>2252500.283167179</v>
+        <v>2323082.645472034</v>
       </c>
       <c r="AE8" t="n">
-        <v>3081970.260728588</v>
+        <v>3178544.162708154</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.192835315362061e-06</v>
+        <v>2.273728204215473e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.17916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2787831.344616964</v>
+        <v>2875188.368933919</v>
       </c>
     </row>
     <row r="9">
@@ -11465,28 +11465,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2192.984266079052</v>
+        <v>2263.566628383906</v>
       </c>
       <c r="AB9" t="n">
-        <v>3000.537820487245</v>
+        <v>3097.111722466811</v>
       </c>
       <c r="AC9" t="n">
-        <v>2714.17070218111</v>
+        <v>2801.527726498065</v>
       </c>
       <c r="AD9" t="n">
-        <v>2192984.266079052</v>
+        <v>2263566.628383907</v>
       </c>
       <c r="AE9" t="n">
-        <v>3000537.820487245</v>
+        <v>3097111.722466811</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.207625024484718e-06</v>
+        <v>2.301919672334542e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.01666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2714170.70218111</v>
+        <v>2801527.726498065</v>
       </c>
     </row>
     <row r="10">
@@ -11571,28 +11571,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2132.070461661268</v>
+        <v>2214.33110573572</v>
       </c>
       <c r="AB10" t="n">
-        <v>2917.192865955271</v>
+        <v>3029.745508261598</v>
       </c>
       <c r="AC10" t="n">
-        <v>2638.780073134402</v>
+        <v>2740.590849227525</v>
       </c>
       <c r="AD10" t="n">
-        <v>2132070.461661268</v>
+        <v>2214331.10573572</v>
       </c>
       <c r="AE10" t="n">
-        <v>2917192.865955271</v>
+        <v>3029745.508261598</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.218792764026316e-06</v>
+        <v>2.323207107444859e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.89791666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2638780.073134402</v>
+        <v>2740590.849227525</v>
       </c>
     </row>
     <row r="11">
@@ -11677,28 +11677,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2086.268405577617</v>
+        <v>2168.529049652066</v>
       </c>
       <c r="AB11" t="n">
-        <v>2854.524472177515</v>
+        <v>2967.077114483665</v>
       </c>
       <c r="AC11" t="n">
-        <v>2582.092662903151</v>
+        <v>2683.903438996228</v>
       </c>
       <c r="AD11" t="n">
-        <v>2086268.405577617</v>
+        <v>2168529.049652066</v>
       </c>
       <c r="AE11" t="n">
-        <v>2854524.472177515</v>
+        <v>2967077.114483665</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.229658672769493e-06</v>
+        <v>2.343919206471113e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.784375</v>
       </c>
       <c r="AH11" t="n">
-        <v>2582092.662903151</v>
+        <v>2683903.438996228</v>
       </c>
     </row>
     <row r="12">
@@ -11783,28 +11783,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2051.113323551822</v>
+        <v>2133.373967626271</v>
       </c>
       <c r="AB12" t="n">
-        <v>2806.423738017063</v>
+        <v>2918.976380323213</v>
       </c>
       <c r="AC12" t="n">
-        <v>2538.582595301169</v>
+        <v>2640.393371394246</v>
       </c>
       <c r="AD12" t="n">
-        <v>2051113.323551822</v>
+        <v>2133373.967626271</v>
       </c>
       <c r="AE12" t="n">
-        <v>2806423.738017063</v>
+        <v>2918976.380323213</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.236298950334767e-06</v>
+        <v>2.356576600320491e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.71458333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2538582.595301169</v>
+        <v>2640393.371394246</v>
       </c>
     </row>
     <row r="13">
@@ -11889,28 +11889,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2014.96512532526</v>
+        <v>2097.225769399708</v>
       </c>
       <c r="AB13" t="n">
-        <v>2756.964178457526</v>
+        <v>2869.516820763676</v>
       </c>
       <c r="AC13" t="n">
-        <v>2493.843386689066</v>
+        <v>2595.654162782143</v>
       </c>
       <c r="AD13" t="n">
-        <v>2014965.12532526</v>
+        <v>2097225.769399708</v>
       </c>
       <c r="AE13" t="n">
-        <v>2756964.178457526</v>
+        <v>2869516.820763676</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.243693804896096e-06</v>
+        <v>2.370672334380025e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.63958333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2493843.386689066</v>
+        <v>2595654.162782143</v>
       </c>
     </row>
     <row r="14">
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1980.847258982661</v>
+        <v>2063.10790305711</v>
       </c>
       <c r="AB14" t="n">
-        <v>2710.28260855355</v>
+        <v>2822.835250859699</v>
       </c>
       <c r="AC14" t="n">
-        <v>2451.61704029873</v>
+        <v>2553.427816391807</v>
       </c>
       <c r="AD14" t="n">
-        <v>1980847.258982661</v>
+        <v>2063107.90305711</v>
       </c>
       <c r="AE14" t="n">
-        <v>2710282.60855355</v>
+        <v>2822835.2508597</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.249277674666895e-06</v>
+        <v>2.381316051935184e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.584375</v>
       </c>
       <c r="AH14" t="n">
-        <v>2451617.04029873</v>
+        <v>2553427.816391807</v>
       </c>
     </row>
     <row r="15">
@@ -12101,28 +12101,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1948.781696523661</v>
+        <v>2019.449310174536</v>
       </c>
       <c r="AB15" t="n">
-        <v>2666.40909136437</v>
+        <v>2763.09963799658</v>
       </c>
       <c r="AC15" t="n">
-        <v>2411.930750013218</v>
+        <v>2499.393286580884</v>
       </c>
       <c r="AD15" t="n">
-        <v>1948781.696523661</v>
+        <v>2019449.310174536</v>
       </c>
       <c r="AE15" t="n">
-        <v>2666409.09136437</v>
+        <v>2763099.63799658</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.25410696744164e-06</v>
+        <v>2.390521429280185e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.53541666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2411930.750013218</v>
+        <v>2499393.286580884</v>
       </c>
     </row>
     <row r="16">
@@ -12207,28 +12207,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1919.852816515943</v>
+        <v>1990.349837966226</v>
       </c>
       <c r="AB16" t="n">
-        <v>2626.827321485698</v>
+        <v>2723.284456343061</v>
       </c>
       <c r="AC16" t="n">
-        <v>2376.126608698403</v>
+        <v>2463.378009983418</v>
       </c>
       <c r="AD16" t="n">
-        <v>1919852.816515943</v>
+        <v>1990349.837966226</v>
       </c>
       <c r="AE16" t="n">
-        <v>2626827.321485698</v>
+        <v>2723284.456343061</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.258030767821121e-06</v>
+        <v>2.398000798373e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.49583333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>2376126.608698403</v>
+        <v>2463378.009983419</v>
       </c>
     </row>
     <row r="17">
@@ -12313,28 +12313,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1885.053208850858</v>
+        <v>1955.550230301141</v>
       </c>
       <c r="AB17" t="n">
-        <v>2579.212963027991</v>
+        <v>2675.670097885354</v>
       </c>
       <c r="AC17" t="n">
-        <v>2333.056497784728</v>
+        <v>2420.307899069743</v>
       </c>
       <c r="AD17" t="n">
-        <v>1885053.208850858</v>
+        <v>1955550.230301141</v>
       </c>
       <c r="AE17" t="n">
-        <v>2579212.963027991</v>
+        <v>2675670.097885353</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.262256398999023e-06</v>
+        <v>2.406055503549876e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.45416666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>2333056.497784728</v>
+        <v>2420307.899069743</v>
       </c>
     </row>
     <row r="18">
@@ -12419,28 +12419,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1865.395430816457</v>
+        <v>1935.89245226674</v>
       </c>
       <c r="AB18" t="n">
-        <v>2552.316323881364</v>
+        <v>2648.773458738726</v>
       </c>
       <c r="AC18" t="n">
-        <v>2308.726836128585</v>
+        <v>2395.978237413599</v>
       </c>
       <c r="AD18" t="n">
-        <v>1865395.430816457</v>
+        <v>1935892.45226674</v>
       </c>
       <c r="AE18" t="n">
-        <v>2552316.323881363</v>
+        <v>2648773.458738726</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.264369214587974e-06</v>
+        <v>2.410082856138315e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.43333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>2308726.836128585</v>
+        <v>2395978.237413599</v>
       </c>
     </row>
     <row r="19">
@@ -12525,28 +12525,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1849.43508318707</v>
+        <v>1919.932104637353</v>
       </c>
       <c r="AB19" t="n">
-        <v>2530.478672133993</v>
+        <v>2626.935806991356</v>
       </c>
       <c r="AC19" t="n">
-        <v>2288.973339214647</v>
+        <v>2376.224740499661</v>
       </c>
       <c r="AD19" t="n">
-        <v>1849435.08318707</v>
+        <v>1919932.104637353</v>
       </c>
       <c r="AE19" t="n">
-        <v>2530478.672133993</v>
+        <v>2626935.806991356</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.266029283979292e-06</v>
+        <v>2.413247204600659e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.41770833333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>2288973.339214647</v>
+        <v>2376224.740499661</v>
       </c>
     </row>
     <row r="20">
@@ -12631,28 +12631,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1850.797845500247</v>
+        <v>1921.29486695053</v>
       </c>
       <c r="AB20" t="n">
-        <v>2532.343263651712</v>
+        <v>2628.800398509075</v>
       </c>
       <c r="AC20" t="n">
-        <v>2290.659976734884</v>
+        <v>2377.9113780199</v>
       </c>
       <c r="AD20" t="n">
-        <v>1850797.845500247</v>
+        <v>1921294.86695053</v>
       </c>
       <c r="AE20" t="n">
-        <v>2532343.263651712</v>
+        <v>2628800.398509074</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.266783860975346e-06</v>
+        <v>2.414685544810816e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.41041666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>2290659.976734885</v>
+        <v>2377911.3780199</v>
       </c>
     </row>
     <row r="21">
@@ -12737,28 +12737,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1856.980180131474</v>
+        <v>1927.477201581757</v>
       </c>
       <c r="AB21" t="n">
-        <v>2540.802206639511</v>
+        <v>2637.259341496874</v>
       </c>
       <c r="AC21" t="n">
-        <v>2298.311610076129</v>
+        <v>2385.563011361145</v>
       </c>
       <c r="AD21" t="n">
-        <v>1856980.180131474</v>
+        <v>1927477.201581757</v>
       </c>
       <c r="AE21" t="n">
-        <v>2540802.206639511</v>
+        <v>2637259.341496874</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.266783860975346e-06</v>
+        <v>2.414685544810816e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.41041666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>2298311.610076129</v>
+        <v>2385563.011361144</v>
       </c>
     </row>
     <row r="22">
@@ -12843,28 +12843,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1863.075825758432</v>
+        <v>1933.572847208715</v>
       </c>
       <c r="AB22" t="n">
-        <v>2549.142537907221</v>
+        <v>2645.599672764584</v>
       </c>
       <c r="AC22" t="n">
-        <v>2305.855951833378</v>
+        <v>2393.107353118392</v>
       </c>
       <c r="AD22" t="n">
-        <v>1863075.825758432</v>
+        <v>1933572.847208715</v>
       </c>
       <c r="AE22" t="n">
-        <v>2549142.537907221</v>
+        <v>2645599.672764584</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.267689353370611e-06</v>
+        <v>2.416411553063003e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.40104166666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>2305855.951833378</v>
+        <v>2393107.353118393</v>
       </c>
     </row>
   </sheetData>
@@ -13140,28 +13140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2671.45690061573</v>
+        <v>2765.627883036449</v>
       </c>
       <c r="AB2" t="n">
-        <v>3655.205187783222</v>
+        <v>3784.054080461787</v>
       </c>
       <c r="AC2" t="n">
-        <v>3306.357534773754</v>
+        <v>3422.90926997563</v>
       </c>
       <c r="AD2" t="n">
-        <v>2671456.90061573</v>
+        <v>2765627.883036449</v>
       </c>
       <c r="AE2" t="n">
-        <v>3655205.187783222</v>
+        <v>3784054.080461787</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.84969263429262e-07</v>
+        <v>2.097726761757924e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.80833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3306357.534773754</v>
+        <v>3422909.26997563</v>
       </c>
     </row>
     <row r="3">
@@ -13246,28 +13246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1779.860224899705</v>
+        <v>1853.01907099202</v>
       </c>
       <c r="AB3" t="n">
-        <v>2435.283281599102</v>
+        <v>2535.382442363109</v>
       </c>
       <c r="AC3" t="n">
-        <v>2202.863263144835</v>
+        <v>2293.409100495581</v>
       </c>
       <c r="AD3" t="n">
-        <v>1779860.224899705</v>
+        <v>1853019.07099202</v>
       </c>
       <c r="AE3" t="n">
-        <v>2435283.281599102</v>
+        <v>2535382.442363109</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.229148684180233e-06</v>
+        <v>2.617765025486594e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.27083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2202863.263144835</v>
+        <v>2293409.100495581</v>
       </c>
     </row>
     <row r="4">
@@ -13352,28 +13352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1549.267766244016</v>
+        <v>1622.341271481759</v>
       </c>
       <c r="AB4" t="n">
-        <v>2119.776506645087</v>
+        <v>2219.758900286897</v>
       </c>
       <c r="AC4" t="n">
-        <v>1917.468011975893</v>
+        <v>2007.908226294699</v>
       </c>
       <c r="AD4" t="n">
-        <v>1549267.766244016</v>
+        <v>1622341.271481759</v>
       </c>
       <c r="AE4" t="n">
-        <v>2119776.506645088</v>
+        <v>2219758.900286897</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.312843285637635e-06</v>
+        <v>2.796012623468076e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.36145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1917468.011975893</v>
+        <v>2007908.226294699</v>
       </c>
     </row>
     <row r="5">
@@ -13458,28 +13458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1414.905212145794</v>
+        <v>1488.063968729558</v>
       </c>
       <c r="AB5" t="n">
-        <v>1935.935732470367</v>
+        <v>2036.034770764826</v>
       </c>
       <c r="AC5" t="n">
-        <v>1751.17274326626</v>
+        <v>1841.718469835778</v>
       </c>
       <c r="AD5" t="n">
-        <v>1414905.212145794</v>
+        <v>1488063.968729558</v>
       </c>
       <c r="AE5" t="n">
-        <v>1935935.732470367</v>
+        <v>2036034.770764826</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.355785183769702e-06</v>
+        <v>2.887467628468636e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.93854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1751172.74326626</v>
+        <v>1841718.469835778</v>
       </c>
     </row>
     <row r="6">
@@ -13564,28 +13564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1334.766727709591</v>
+        <v>1407.925484293356</v>
       </c>
       <c r="AB6" t="n">
-        <v>1826.286722604342</v>
+        <v>1926.385760898801</v>
       </c>
       <c r="AC6" t="n">
-        <v>1651.988481008497</v>
+        <v>1742.534207578015</v>
       </c>
       <c r="AD6" t="n">
-        <v>1334766.727709591</v>
+        <v>1407925.484293356</v>
       </c>
       <c r="AE6" t="n">
-        <v>1826286.722604342</v>
+        <v>1926385.760898801</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.379192728241692e-06</v>
+        <v>2.937319572370901e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.71875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1651988.481008497</v>
+        <v>1742534.207578015</v>
       </c>
     </row>
     <row r="7">
@@ -13670,28 +13670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1321.330205658342</v>
+        <v>1394.488962242106</v>
       </c>
       <c r="AB7" t="n">
-        <v>1807.902280356305</v>
+        <v>1908.001318650764</v>
       </c>
       <c r="AC7" t="n">
-        <v>1635.358624125886</v>
+        <v>1725.904350695404</v>
       </c>
       <c r="AD7" t="n">
-        <v>1321330.205658342</v>
+        <v>1394488.962242106</v>
       </c>
       <c r="AE7" t="n">
-        <v>1807902.280356305</v>
+        <v>1908001.318650764</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.384244716257229e-06</v>
+        <v>2.948078984723908e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.671875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1635358.624125886</v>
+        <v>1725904.350695404</v>
       </c>
     </row>
     <row r="8">
@@ -13776,28 +13776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1331.374056429706</v>
+        <v>1404.53281301347</v>
       </c>
       <c r="AB8" t="n">
-        <v>1821.644720085109</v>
+        <v>1921.743758379568</v>
       </c>
       <c r="AC8" t="n">
-        <v>1647.789504694608</v>
+        <v>1738.335231264126</v>
       </c>
       <c r="AD8" t="n">
-        <v>1331374.056429706</v>
+        <v>1404532.81301347</v>
       </c>
       <c r="AE8" t="n">
-        <v>1821644.720085109</v>
+        <v>1921743.758379568</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.384413115857747e-06</v>
+        <v>2.948437631802342e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.67083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1647789.504694608</v>
+        <v>1738335.231264126</v>
       </c>
     </row>
   </sheetData>
@@ -14073,28 +14073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4013.419488655748</v>
+        <v>4134.023904309381</v>
       </c>
       <c r="AB2" t="n">
-        <v>5491.33760395071</v>
+        <v>5656.353886139323</v>
       </c>
       <c r="AC2" t="n">
-        <v>4967.252050170179</v>
+        <v>5116.519409988511</v>
       </c>
       <c r="AD2" t="n">
-        <v>4013419.488655748</v>
+        <v>4134023.90430938</v>
       </c>
       <c r="AE2" t="n">
-        <v>5491337.60395071</v>
+        <v>5656353.886139323</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.171121543716178e-07</v>
+        <v>1.659020174917763e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.53645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4967252.050170179</v>
+        <v>5116519.409988511</v>
       </c>
     </row>
     <row r="3">
@@ -14179,28 +14179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2354.584761217922</v>
+        <v>2442.188537386934</v>
       </c>
       <c r="AB3" t="n">
-        <v>3221.646747246944</v>
+        <v>3341.510098607232</v>
       </c>
       <c r="AC3" t="n">
-        <v>2914.177303299183</v>
+        <v>3022.60106463491</v>
       </c>
       <c r="AD3" t="n">
-        <v>2354584.761217922</v>
+        <v>2442188.537386934</v>
       </c>
       <c r="AE3" t="n">
-        <v>3221646.747246944</v>
+        <v>3341510.098607231</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.104841315985914e-06</v>
+        <v>2.243209850076108e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.18854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2914177.303299183</v>
+        <v>3022601.06463491</v>
       </c>
     </row>
     <row r="4">
@@ -14285,28 +14285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1998.575309388723</v>
+        <v>2086.178996049183</v>
       </c>
       <c r="AB4" t="n">
-        <v>2734.53890922551</v>
+        <v>2854.402138116242</v>
       </c>
       <c r="AC4" t="n">
-        <v>2473.55835367849</v>
+        <v>2581.982004232989</v>
       </c>
       <c r="AD4" t="n">
-        <v>1998575.309388723</v>
+        <v>2086178.996049183</v>
       </c>
       <c r="AE4" t="n">
-        <v>2734538.90922551</v>
+        <v>2854402.138116241</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.204563796970936e-06</v>
+        <v>2.445680963694818e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.93125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2473558.35367849</v>
+        <v>2581982.004232989</v>
       </c>
     </row>
     <row r="5">
@@ -14391,28 +14391,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1843.054653494476</v>
+        <v>1919.686633617286</v>
       </c>
       <c r="AB5" t="n">
-        <v>2521.748686743894</v>
+        <v>2626.599942712283</v>
       </c>
       <c r="AC5" t="n">
-        <v>2281.076531377566</v>
+        <v>2375.920930635995</v>
       </c>
       <c r="AD5" t="n">
-        <v>1843054.653494476</v>
+        <v>1919686.633617286</v>
       </c>
       <c r="AE5" t="n">
-        <v>2521748.686743894</v>
+        <v>2626599.942712283</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.255149998956876e-06</v>
+        <v>2.548388442977976e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.37083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2281076.531377567</v>
+        <v>2375920.930635995</v>
       </c>
     </row>
     <row r="6">
@@ -14497,28 +14497,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1745.883048936973</v>
+        <v>1811.713914722726</v>
       </c>
       <c r="AB6" t="n">
-        <v>2388.79421047968</v>
+        <v>2478.866905300574</v>
       </c>
       <c r="AC6" t="n">
-        <v>2160.811043725231</v>
+        <v>2242.28732697024</v>
       </c>
       <c r="AD6" t="n">
-        <v>1745883.048936973</v>
+        <v>1811713.914722726</v>
       </c>
       <c r="AE6" t="n">
-        <v>2388794.21047968</v>
+        <v>2478866.905300574</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.285437279126802e-06</v>
+        <v>2.609882092994644e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.05416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2160811.043725231</v>
+        <v>2242287.32697024</v>
       </c>
     </row>
     <row r="7">
@@ -14603,28 +14603,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1656.911485644678</v>
+        <v>1733.628717113509</v>
       </c>
       <c r="AB7" t="n">
-        <v>2267.059392434813</v>
+        <v>2372.027293055852</v>
       </c>
       <c r="AC7" t="n">
-        <v>2050.694425858675</v>
+        <v>2145.644337367815</v>
       </c>
       <c r="AD7" t="n">
-        <v>1656911.485644678</v>
+        <v>1733628.717113509</v>
       </c>
       <c r="AE7" t="n">
-        <v>2267059.392434813</v>
+        <v>2372027.293055852</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.307025021375579e-06</v>
+        <v>2.653712673325673e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.83958333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2050694.425858675</v>
+        <v>2145644.337367815</v>
       </c>
     </row>
     <row r="8">
@@ -14709,28 +14709,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1595.290988785638</v>
+        <v>1672.008220254469</v>
       </c>
       <c r="AB8" t="n">
-        <v>2182.747510127815</v>
+        <v>2287.715410748853</v>
       </c>
       <c r="AC8" t="n">
-        <v>1974.429151266587</v>
+        <v>2069.379062775728</v>
       </c>
       <c r="AD8" t="n">
-        <v>1595290.988785638</v>
+        <v>1672008.220254469</v>
       </c>
       <c r="AE8" t="n">
-        <v>2182747.510127815</v>
+        <v>2287715.410748853</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.322007558906446e-06</v>
+        <v>2.68413240445094e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.69375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1974429.151266587</v>
+        <v>2069379.062775727</v>
       </c>
     </row>
     <row r="9">
@@ -14815,28 +14815,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1537.375922793158</v>
+        <v>1614.09315426199</v>
       </c>
       <c r="AB9" t="n">
-        <v>2103.505561804519</v>
+        <v>2208.473462425558</v>
       </c>
       <c r="AC9" t="n">
-        <v>1902.749943274493</v>
+        <v>1997.699854783634</v>
       </c>
       <c r="AD9" t="n">
-        <v>1537375.922793159</v>
+        <v>1614093.15426199</v>
       </c>
       <c r="AE9" t="n">
-        <v>2103505.561804519</v>
+        <v>2208473.462425558</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.333606942801312e-06</v>
+        <v>2.707683164031791e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.58333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1902749.943274493</v>
+        <v>1997699.854783634</v>
       </c>
     </row>
     <row r="10">
@@ -14921,28 +14921,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1513.43483785796</v>
+        <v>1579.350954989734</v>
       </c>
       <c r="AB10" t="n">
-        <v>2070.748313190056</v>
+        <v>2160.937652663599</v>
       </c>
       <c r="AC10" t="n">
-        <v>1873.119000492708</v>
+        <v>1954.700795988429</v>
       </c>
       <c r="AD10" t="n">
-        <v>1513434.83785796</v>
+        <v>1579350.954989734</v>
       </c>
       <c r="AE10" t="n">
-        <v>2070748.313190056</v>
+        <v>2160937.652663599</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.339084429640554e-06</v>
+        <v>2.718804356056082e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.53229166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1873119.000492708</v>
+        <v>1954700.795988429</v>
       </c>
     </row>
     <row r="11">
@@ -15027,28 +15027,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1512.373511380533</v>
+        <v>1578.289628512307</v>
       </c>
       <c r="AB11" t="n">
-        <v>2069.296159481221</v>
+        <v>2159.485498954764</v>
       </c>
       <c r="AC11" t="n">
-        <v>1871.805438295733</v>
+        <v>1953.387233791455</v>
       </c>
       <c r="AD11" t="n">
-        <v>1512373.511380533</v>
+        <v>1578289.628512307</v>
       </c>
       <c r="AE11" t="n">
-        <v>2069296.159481221</v>
+        <v>2159485.498954765</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.340695455181507e-06</v>
+        <v>2.722075294886756e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.51770833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1871805.438295733</v>
+        <v>1953387.233791455</v>
       </c>
     </row>
     <row r="12">
@@ -15133,28 +15133,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1521.769096659319</v>
+        <v>1587.685213791093</v>
       </c>
       <c r="AB12" t="n">
-        <v>2082.151613763624</v>
+        <v>2172.340953237167</v>
       </c>
       <c r="AC12" t="n">
-        <v>1883.433986064167</v>
+        <v>1965.015781559889</v>
       </c>
       <c r="AD12" t="n">
-        <v>1521769.096659319</v>
+        <v>1587685.213791093</v>
       </c>
       <c r="AE12" t="n">
-        <v>2082151.613763624</v>
+        <v>2172340.953237168</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.340695455181507e-06</v>
+        <v>2.722075294886756e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.51770833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1883433.986064167</v>
+        <v>1965015.781559889</v>
       </c>
     </row>
   </sheetData>
@@ -15430,28 +15430,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1918.914601995869</v>
+        <v>1999.201257025796</v>
       </c>
       <c r="AB2" t="n">
-        <v>2625.543614988229</v>
+        <v>2735.395358397413</v>
       </c>
       <c r="AC2" t="n">
-        <v>2374.965417347359</v>
+        <v>2474.333064543462</v>
       </c>
       <c r="AD2" t="n">
-        <v>1918914.601995869</v>
+        <v>1999201.257025796</v>
       </c>
       <c r="AE2" t="n">
-        <v>2625543.614988229</v>
+        <v>2735395.358397414</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.129136030725361e-06</v>
+        <v>2.514365393012904e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.13333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2374965.417347359</v>
+        <v>2474333.064543462</v>
       </c>
     </row>
     <row r="3">
@@ -15536,28 +15536,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1368.216190826152</v>
+        <v>1438.541608905106</v>
       </c>
       <c r="AB3" t="n">
-        <v>1872.053753726584</v>
+        <v>1968.276093280689</v>
       </c>
       <c r="AC3" t="n">
-        <v>1693.387570914864</v>
+        <v>1780.426585430827</v>
       </c>
       <c r="AD3" t="n">
-        <v>1368216.190826152</v>
+        <v>1438541.608905106</v>
       </c>
       <c r="AE3" t="n">
-        <v>1872053.753726584</v>
+        <v>1968276.093280689</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.336039364732192e-06</v>
+        <v>2.975098704650802e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.63541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1693387.570914864</v>
+        <v>1780426.585430827</v>
       </c>
     </row>
     <row r="4">
@@ -15642,28 +15642,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1194.739789825327</v>
+        <v>1264.97986704971</v>
       </c>
       <c r="AB4" t="n">
-        <v>1634.695688638582</v>
+        <v>1730.801261070489</v>
       </c>
       <c r="AC4" t="n">
-        <v>1478.682626424724</v>
+        <v>1565.616017908748</v>
       </c>
       <c r="AD4" t="n">
-        <v>1194739.789825327</v>
+        <v>1264979.86704971</v>
       </c>
       <c r="AE4" t="n">
-        <v>1634695.688638582</v>
+        <v>1730801.261070489</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.404599049373509e-06</v>
+        <v>3.127767730992354e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.96979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1478682.626424724</v>
+        <v>1565616.017908748</v>
       </c>
     </row>
     <row r="5">
@@ -15748,28 +15748,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1177.505329572504</v>
+        <v>1247.745406796887</v>
       </c>
       <c r="AB5" t="n">
-        <v>1611.114739789944</v>
+        <v>1707.220312221852</v>
       </c>
       <c r="AC5" t="n">
-        <v>1457.352210238131</v>
+        <v>1544.285601722155</v>
       </c>
       <c r="AD5" t="n">
-        <v>1177505.329572504</v>
+        <v>1247745.406796887</v>
       </c>
       <c r="AE5" t="n">
-        <v>1611114.739789944</v>
+        <v>1707220.312221852</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.414218392881857e-06</v>
+        <v>3.149188130096398e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.88229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1457352.210238131</v>
+        <v>1544285.601722155</v>
       </c>
     </row>
     <row r="6">
@@ -15854,28 +15854,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1188.916492843389</v>
+        <v>1259.156570067772</v>
       </c>
       <c r="AB6" t="n">
-        <v>1626.727996802163</v>
+        <v>1722.83356923407</v>
       </c>
       <c r="AC6" t="n">
-        <v>1471.475359914447</v>
+        <v>1558.408751398471</v>
       </c>
       <c r="AD6" t="n">
-        <v>1188916.492843389</v>
+        <v>1259156.570067772</v>
       </c>
       <c r="AE6" t="n">
-        <v>1626727.996802163</v>
+        <v>1722833.56923407</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.414218392881857e-06</v>
+        <v>3.149188130096398e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.88333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1471475.359914447</v>
+        <v>1558408.751398471</v>
       </c>
     </row>
   </sheetData>
@@ -16151,28 +16151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9315.578582138311</v>
+        <v>9493.566444851596</v>
       </c>
       <c r="AB2" t="n">
-        <v>12745.9855904043</v>
+        <v>12989.51643643895</v>
       </c>
       <c r="AC2" t="n">
-        <v>11529.52661475876</v>
+        <v>11749.81521864554</v>
       </c>
       <c r="AD2" t="n">
-        <v>9315578.582138311</v>
+        <v>9493566.444851596</v>
       </c>
       <c r="AE2" t="n">
-        <v>12745985.5904043</v>
+        <v>12989516.43643895</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.298901482186106e-07</v>
+        <v>1.001897040612914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.39895833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>11529526.61475876</v>
+        <v>11749815.21864554</v>
       </c>
     </row>
     <row r="3">
@@ -16257,28 +16257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3820.528093788237</v>
+        <v>3927.423166736564</v>
       </c>
       <c r="AB3" t="n">
-        <v>5227.415087725216</v>
+        <v>5373.673642410914</v>
       </c>
       <c r="AC3" t="n">
-        <v>4728.517928475678</v>
+        <v>4860.817771977339</v>
       </c>
       <c r="AD3" t="n">
-        <v>3820528.093788237</v>
+        <v>3927423.166736564</v>
       </c>
       <c r="AE3" t="n">
-        <v>5227415.087725216</v>
+        <v>5373673.642410914</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.864405612451891e-07</v>
+        <v>1.676049607596033e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.575</v>
       </c>
       <c r="AH3" t="n">
-        <v>4728517.928475678</v>
+        <v>4860817.771977339</v>
       </c>
     </row>
     <row r="4">
@@ -16363,28 +16363,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3041.567794104947</v>
+        <v>3136.415044525089</v>
       </c>
       <c r="AB4" t="n">
-        <v>4161.607240395435</v>
+        <v>4291.381432785653</v>
       </c>
       <c r="AC4" t="n">
-        <v>3764.429286224383</v>
+        <v>3881.818011832097</v>
       </c>
       <c r="AD4" t="n">
-        <v>3041567.794104947</v>
+        <v>3136415.044525089</v>
       </c>
       <c r="AE4" t="n">
-        <v>4161607.240395435</v>
+        <v>4291381.432785653</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.015959293493938e-06</v>
+        <v>1.920938920938055e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3764429.286224383</v>
+        <v>3881818.011832097</v>
       </c>
     </row>
     <row r="5">
@@ -16469,28 +16469,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2725.640685173846</v>
+        <v>2808.696046120968</v>
       </c>
       <c r="AB5" t="n">
-        <v>3729.341832235506</v>
+        <v>3842.981841227289</v>
       </c>
       <c r="AC5" t="n">
-        <v>3373.418681930944</v>
+        <v>3476.2130479593</v>
       </c>
       <c r="AD5" t="n">
-        <v>2725640.685173846</v>
+        <v>2808696.046120968</v>
       </c>
       <c r="AE5" t="n">
-        <v>3729341.832235506</v>
+        <v>3842981.841227289</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.083709854358468e-06</v>
+        <v>2.049039219949528e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.37604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3373418.681930944</v>
+        <v>3476213.0479593</v>
       </c>
     </row>
     <row r="6">
@@ -16575,28 +16575,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2545.010656772712</v>
+        <v>2628.151269065855</v>
       </c>
       <c r="AB6" t="n">
-        <v>3482.19585854262</v>
+        <v>3595.952512187052</v>
       </c>
       <c r="AC6" t="n">
-        <v>3149.859973095764</v>
+        <v>3252.759851374833</v>
       </c>
       <c r="AD6" t="n">
-        <v>2545010.656772712</v>
+        <v>2628151.269065855</v>
       </c>
       <c r="AE6" t="n">
-        <v>3482195.858542621</v>
+        <v>3595952.512187052</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.125137901509627e-06</v>
+        <v>2.127369866364932e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.846875</v>
       </c>
       <c r="AH6" t="n">
-        <v>3149859.973095763</v>
+        <v>3252759.851374832</v>
       </c>
     </row>
     <row r="7">
@@ -16681,28 +16681,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2433.291249588884</v>
+        <v>2516.431861882027</v>
       </c>
       <c r="AB7" t="n">
-        <v>3329.336436921305</v>
+        <v>3443.093090565736</v>
       </c>
       <c r="AC7" t="n">
-        <v>3011.589240134447</v>
+        <v>3114.489118413516</v>
       </c>
       <c r="AD7" t="n">
-        <v>2433291.249588884</v>
+        <v>2516431.861882027</v>
       </c>
       <c r="AE7" t="n">
-        <v>3329336.436921305</v>
+        <v>3443093.090565736</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.153853371015123e-06</v>
+        <v>2.181664032833371e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.50208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3011589.240134447</v>
+        <v>3114489.118413516</v>
       </c>
     </row>
     <row r="8">
@@ -16787,28 +16787,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2353.416327361379</v>
+        <v>2436.386347453929</v>
       </c>
       <c r="AB8" t="n">
-        <v>3220.048044496756</v>
+        <v>3333.57128636634</v>
       </c>
       <c r="AC8" t="n">
-        <v>2912.731178495679</v>
+        <v>3015.419921492097</v>
       </c>
       <c r="AD8" t="n">
-        <v>2353416.327361378</v>
+        <v>2436386.347453929</v>
       </c>
       <c r="AE8" t="n">
-        <v>3220048.044496756</v>
+        <v>3333571.28636634</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.174193495248183e-06</v>
+        <v>2.220122400748515e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.26770833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2912731.178495679</v>
+        <v>3015419.921492097</v>
       </c>
     </row>
     <row r="9">
@@ -16893,28 +16893,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2288.574183342039</v>
+        <v>2359.837654816142</v>
       </c>
       <c r="AB9" t="n">
-        <v>3131.32816241599</v>
+        <v>3228.833988009337</v>
       </c>
       <c r="AC9" t="n">
-        <v>2832.478597441569</v>
+        <v>2920.678603890568</v>
       </c>
       <c r="AD9" t="n">
-        <v>2288574.183342039</v>
+        <v>2359837.654816142</v>
       </c>
       <c r="AE9" t="n">
-        <v>3131328.162415991</v>
+        <v>3228833.988009337</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.190345946845024e-06</v>
+        <v>2.250662869387013e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.08854166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2832478.597441569</v>
+        <v>2920678.603890568</v>
       </c>
     </row>
     <row r="10">
@@ -16999,28 +16999,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2227.289266007936</v>
+        <v>2310.344537446507</v>
       </c>
       <c r="AB10" t="n">
-        <v>3047.475434819729</v>
+        <v>3161.115321341963</v>
       </c>
       <c r="AC10" t="n">
-        <v>2756.628656479056</v>
+        <v>2859.422911726186</v>
       </c>
       <c r="AD10" t="n">
-        <v>2227289.266007936</v>
+        <v>2310344.537446507</v>
       </c>
       <c r="AE10" t="n">
-        <v>3047475.43481973</v>
+        <v>3161115.321341963</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.202460285542656e-06</v>
+        <v>2.273568220865885e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.95625</v>
       </c>
       <c r="AH10" t="n">
-        <v>2756628.656479056</v>
+        <v>2859422.911726186</v>
       </c>
     </row>
     <row r="11">
@@ -17105,28 +17105,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2182.770486361585</v>
+        <v>2265.82575780016</v>
       </c>
       <c r="AB11" t="n">
-        <v>2986.562876477476</v>
+        <v>3100.202762999884</v>
       </c>
       <c r="AC11" t="n">
-        <v>2701.529507213788</v>
+        <v>2804.323762460964</v>
       </c>
       <c r="AD11" t="n">
-        <v>2182770.486361586</v>
+        <v>2265825.75780016</v>
       </c>
       <c r="AE11" t="n">
-        <v>2986562.876477476</v>
+        <v>3100202.762999884</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.212181668448162e-06</v>
+        <v>2.291949058472388e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.85208333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2701529.507213788</v>
+        <v>2804323.762460964</v>
       </c>
     </row>
     <row r="12">
@@ -17211,28 +17211,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2147.146033568158</v>
+        <v>2230.201305006732</v>
       </c>
       <c r="AB12" t="n">
-        <v>2937.819928525571</v>
+        <v>3051.459815047976</v>
       </c>
       <c r="AC12" t="n">
-        <v>2657.438517803256</v>
+        <v>2760.232773050431</v>
       </c>
       <c r="AD12" t="n">
-        <v>2147146.033568158</v>
+        <v>2230201.305006732</v>
       </c>
       <c r="AE12" t="n">
-        <v>2937819.928525571</v>
+        <v>3051459.815047977</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.220257894246583e-06</v>
+        <v>2.307219292791636e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.76666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2657438.517803256</v>
+        <v>2760232.773050431</v>
       </c>
     </row>
     <row r="13">
@@ -17317,28 +17317,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2110.690534165388</v>
+        <v>2193.745805603962</v>
       </c>
       <c r="AB13" t="n">
-        <v>2887.939905939576</v>
+        <v>3001.579792461979</v>
       </c>
       <c r="AC13" t="n">
-        <v>2612.318974565817</v>
+        <v>2715.113229812991</v>
       </c>
       <c r="AD13" t="n">
-        <v>2110690.534165388</v>
+        <v>2193745.805603962</v>
       </c>
       <c r="AE13" t="n">
-        <v>2887939.905939576</v>
+        <v>3001579.792461979</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.227735881096973e-06</v>
+        <v>2.321358398642793e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.68958333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2612318.974565818</v>
+        <v>2715113.229812991</v>
       </c>
     </row>
     <row r="14">
@@ -17423,28 +17423,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2076.79527541173</v>
+        <v>2159.850546850302</v>
       </c>
       <c r="AB14" t="n">
-        <v>2841.562917559542</v>
+        <v>2955.20280408177</v>
       </c>
       <c r="AC14" t="n">
-        <v>2570.368140866262</v>
+        <v>2673.16239611339</v>
       </c>
       <c r="AD14" t="n">
-        <v>2076795.27541173</v>
+        <v>2159850.546850302</v>
       </c>
       <c r="AE14" t="n">
-        <v>2841562.917559542</v>
+        <v>2955202.80408177</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.233269591366261e-06</v>
+        <v>2.331821336972648e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.63333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2570368.140866262</v>
+        <v>2673162.39611339</v>
       </c>
     </row>
     <row r="15">
@@ -17529,28 +17529,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2048.159755797952</v>
+        <v>2131.215027236522</v>
       </c>
       <c r="AB15" t="n">
-        <v>2802.382536314004</v>
+        <v>2916.022422836232</v>
       </c>
       <c r="AC15" t="n">
-        <v>2534.927080216788</v>
+        <v>2637.721335463916</v>
       </c>
       <c r="AD15" t="n">
-        <v>2048159.755797951</v>
+        <v>2131215.027236522</v>
       </c>
       <c r="AE15" t="n">
-        <v>2802382.536314004</v>
+        <v>2916022.422836232</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.237905943213503e-06</v>
+        <v>2.340587582600365e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.58541666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2534927.080216788</v>
+        <v>2637721.335463916</v>
       </c>
     </row>
     <row r="16">
@@ -17635,28 +17635,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2021.536149206674</v>
+        <v>2104.591420645246</v>
       </c>
       <c r="AB16" t="n">
-        <v>2765.954943225192</v>
+        <v>2879.594829747419</v>
       </c>
       <c r="AC16" t="n">
-        <v>2501.976085485924</v>
+        <v>2604.770340733052</v>
       </c>
       <c r="AD16" t="n">
-        <v>2021536.149206674</v>
+        <v>2104591.420645246</v>
       </c>
       <c r="AE16" t="n">
-        <v>2765954.943225192</v>
+        <v>2879594.829747419</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.242093615849721e-06</v>
+        <v>2.348505481877012e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.54270833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>2501976.085485924</v>
+        <v>2604770.340733052</v>
       </c>
     </row>
     <row r="17">
@@ -17741,28 +17741,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1991.852654250602</v>
+        <v>2063.030784870133</v>
       </c>
       <c r="AB17" t="n">
-        <v>2725.34067588292</v>
+        <v>2822.729734354064</v>
       </c>
       <c r="AC17" t="n">
-        <v>2465.237986816316</v>
+        <v>2553.332370233375</v>
       </c>
       <c r="AD17" t="n">
-        <v>1991852.654250602</v>
+        <v>2063030.784870133</v>
       </c>
       <c r="AE17" t="n">
-        <v>2725340.67588292</v>
+        <v>2822729.734354064</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.246430848222947e-06</v>
+        <v>2.356706163270683e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.49895833333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>2465237.986816316</v>
+        <v>2553332.370233375</v>
       </c>
     </row>
     <row r="18">
@@ -17847,28 +17847,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1961.82546499094</v>
+        <v>2033.00359561047</v>
       </c>
       <c r="AB18" t="n">
-        <v>2684.256150831753</v>
+        <v>2781.645209302896</v>
       </c>
       <c r="AC18" t="n">
-        <v>2428.074511173539</v>
+        <v>2516.168894590598</v>
       </c>
       <c r="AD18" t="n">
-        <v>1961825.46499094</v>
+        <v>2033003.595610471</v>
       </c>
       <c r="AE18" t="n">
-        <v>2684256.150831753</v>
+        <v>2781645.209302896</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.249721162437118e-06</v>
+        <v>2.362927369845191e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.46666666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>2428074.511173539</v>
+        <v>2516168.894590598</v>
       </c>
     </row>
     <row r="19">
@@ -17953,28 +17953,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1935.877416782096</v>
+        <v>2007.055547401627</v>
       </c>
       <c r="AB19" t="n">
-        <v>2648.752886525318</v>
+        <v>2746.141944996461</v>
       </c>
       <c r="AC19" t="n">
-        <v>2395.959628583366</v>
+        <v>2484.054012000425</v>
       </c>
       <c r="AD19" t="n">
-        <v>1935877.416782096</v>
+        <v>2007055.547401627</v>
       </c>
       <c r="AE19" t="n">
-        <v>2648752.886525318</v>
+        <v>2746141.944996461</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.252861916914282e-06</v>
+        <v>2.368865794302677e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.43541666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>2395959.628583366</v>
+        <v>2484054.012000425</v>
       </c>
     </row>
     <row r="20">
@@ -18059,28 +18059,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1920.574565269226</v>
+        <v>1991.752695888757</v>
       </c>
       <c r="AB20" t="n">
-        <v>2627.814849971247</v>
+        <v>2725.203908442391</v>
       </c>
       <c r="AC20" t="n">
-        <v>2377.019888851297</v>
+        <v>2465.114272268357</v>
       </c>
       <c r="AD20" t="n">
-        <v>1920574.565269226</v>
+        <v>1991752.695888757</v>
       </c>
       <c r="AE20" t="n">
-        <v>2627814.849971247</v>
+        <v>2725203.908442392</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.254058394810344e-06</v>
+        <v>2.371128051238862e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.42291666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>2377019.888851297</v>
+        <v>2465114.272268357</v>
       </c>
     </row>
     <row r="21">
@@ -18165,28 +18165,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1908.951008952945</v>
+        <v>1980.129139572476</v>
       </c>
       <c r="AB21" t="n">
-        <v>2611.910987424198</v>
+        <v>2709.300045895342</v>
       </c>
       <c r="AC21" t="n">
-        <v>2362.633868624528</v>
+        <v>2450.728252041587</v>
       </c>
       <c r="AD21" t="n">
-        <v>1908951.008952945</v>
+        <v>1980129.139572476</v>
       </c>
       <c r="AE21" t="n">
-        <v>2611910.987424198</v>
+        <v>2709300.045895342</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.255853111654438e-06</v>
+        <v>2.374521436643139e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.40520833333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>2362633.868624527</v>
+        <v>2450728.252041587</v>
       </c>
     </row>
     <row r="22">
@@ -18271,28 +18271,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1909.225514305037</v>
+        <v>1980.403644924568</v>
       </c>
       <c r="AB22" t="n">
-        <v>2612.286577757252</v>
+        <v>2709.675636228395</v>
       </c>
       <c r="AC22" t="n">
-        <v>2362.973613143338</v>
+        <v>2451.067996560398</v>
       </c>
       <c r="AD22" t="n">
-        <v>1909225.514305037</v>
+        <v>1980403.644924568</v>
       </c>
       <c r="AE22" t="n">
-        <v>2612286.577757252</v>
+        <v>2709675.636228396</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.256750470076485e-06</v>
+        <v>2.376218129345278e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.396875</v>
       </c>
       <c r="AH22" t="n">
-        <v>2362973.613143338</v>
+        <v>2451067.996560398</v>
       </c>
     </row>
     <row r="23">
@@ -18377,28 +18377,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1916.108920410167</v>
+        <v>1987.287051029698</v>
       </c>
       <c r="AB23" t="n">
-        <v>2621.704757664736</v>
+        <v>2719.09381613588</v>
       </c>
       <c r="AC23" t="n">
-        <v>2371.492935178951</v>
+        <v>2459.58731859601</v>
       </c>
       <c r="AD23" t="n">
-        <v>1916108.920410167</v>
+        <v>1987287.051029698</v>
       </c>
       <c r="AE23" t="n">
-        <v>2621704.757664736</v>
+        <v>2719093.81613588</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.256451350602469e-06</v>
+        <v>2.375652565111232e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="AH23" t="n">
-        <v>2371492.935178951</v>
+        <v>2459587.31859601</v>
       </c>
     </row>
     <row r="24">
@@ -18483,28 +18483,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1925.053398911842</v>
+        <v>1996.231529531372</v>
       </c>
       <c r="AB24" t="n">
-        <v>2633.942987753269</v>
+        <v>2731.332046224412</v>
       </c>
       <c r="AC24" t="n">
-        <v>2382.563165764298</v>
+        <v>2470.657549181357</v>
       </c>
       <c r="AD24" t="n">
-        <v>1925053.398911842</v>
+        <v>1996231.529531372</v>
       </c>
       <c r="AE24" t="n">
-        <v>2633942.987753269</v>
+        <v>2731332.046224412</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.256451350602469e-06</v>
+        <v>2.375652565111232e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="AH24" t="n">
-        <v>2382563.165764298</v>
+        <v>2470657.549181357</v>
       </c>
     </row>
   </sheetData>
@@ -18780,28 +18780,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1552.955536275542</v>
+        <v>1631.18165595334</v>
       </c>
       <c r="AB2" t="n">
-        <v>2124.822276295154</v>
+        <v>2231.854704331151</v>
       </c>
       <c r="AC2" t="n">
-        <v>1922.032220452339</v>
+        <v>2018.849623777537</v>
       </c>
       <c r="AD2" t="n">
-        <v>1552955.536275542</v>
+        <v>1631181.65595334</v>
       </c>
       <c r="AE2" t="n">
-        <v>2124822.276295154</v>
+        <v>2231854.704331151</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.218898516343121e-06</v>
+        <v>2.794406207979448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.29583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1922032.220452339</v>
+        <v>2018849.623777537</v>
       </c>
     </row>
     <row r="3">
@@ -18886,28 +18886,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1143.04775356047</v>
+        <v>1211.474284253469</v>
       </c>
       <c r="AB3" t="n">
-        <v>1563.968364129313</v>
+        <v>1657.592562188955</v>
       </c>
       <c r="AC3" t="n">
-        <v>1414.705418500196</v>
+        <v>1499.394254499413</v>
       </c>
       <c r="AD3" t="n">
-        <v>1143047.753560469</v>
+        <v>1211474.284253469</v>
       </c>
       <c r="AE3" t="n">
-        <v>1563968.364129313</v>
+        <v>1657592.562188955</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.402896706475386e-06</v>
+        <v>3.216234340402776e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.28958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1414705.418500196</v>
+        <v>1499394.254499413</v>
       </c>
     </row>
     <row r="4">
@@ -18992,28 +18992,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1099.29349449327</v>
+        <v>1158.091117910614</v>
       </c>
       <c r="AB4" t="n">
-        <v>1504.101856571895</v>
+        <v>1584.551358899576</v>
       </c>
       <c r="AC4" t="n">
-        <v>1360.552486400887</v>
+        <v>1433.324001138</v>
       </c>
       <c r="AD4" t="n">
-        <v>1099293.49449327</v>
+        <v>1158091.117910614</v>
       </c>
       <c r="AE4" t="n">
-        <v>1504101.856571895</v>
+        <v>1584551.358899576</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.426343946657611e-06</v>
+        <v>3.269988703581236e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.071875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1360552.486400887</v>
+        <v>1433324.001138</v>
       </c>
     </row>
   </sheetData>
@@ -19289,28 +19289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5767.795014668556</v>
+        <v>5915.763111625954</v>
       </c>
       <c r="AB2" t="n">
-        <v>7891.751596227332</v>
+        <v>8094.208074376177</v>
       </c>
       <c r="AC2" t="n">
-        <v>7138.573900026028</v>
+        <v>7321.708216049791</v>
       </c>
       <c r="AD2" t="n">
-        <v>5767795.014668556</v>
+        <v>5915763.111625954</v>
       </c>
       <c r="AE2" t="n">
-        <v>7891751.596227332</v>
+        <v>8094208.074376177</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.815110293661852e-07</v>
+        <v>1.335752199120153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.76458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>7138573.900026028</v>
+        <v>7321708.216049791</v>
       </c>
     </row>
     <row r="3">
@@ -19395,28 +19395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2949.134670749347</v>
+        <v>3040.211744736583</v>
       </c>
       <c r="AB3" t="n">
-        <v>4035.136163158695</v>
+        <v>4159.751833824964</v>
       </c>
       <c r="AC3" t="n">
-        <v>3650.028431095851</v>
+        <v>3762.750957052918</v>
       </c>
       <c r="AD3" t="n">
-        <v>2949134.670749347</v>
+        <v>3040211.744736583</v>
       </c>
       <c r="AE3" t="n">
-        <v>4035136.163158695</v>
+        <v>4159751.833824964</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.002286127149083e-06</v>
+        <v>1.964466957683894e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.159375</v>
       </c>
       <c r="AH3" t="n">
-        <v>3650028.431095851</v>
+        <v>3762750.957052918</v>
       </c>
     </row>
     <row r="4">
@@ -19501,28 +19501,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2442.135139886443</v>
+        <v>2521.987515407613</v>
       </c>
       <c r="AB4" t="n">
-        <v>3341.437037791329</v>
+        <v>3450.694580817579</v>
       </c>
       <c r="AC4" t="n">
-        <v>3022.534976640734</v>
+        <v>3121.365133104481</v>
       </c>
       <c r="AD4" t="n">
-        <v>2442135.139886443</v>
+        <v>2521987.515407613</v>
       </c>
       <c r="AE4" t="n">
-        <v>3341437.037791329</v>
+        <v>3450694.580817579</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.11563806427159e-06</v>
+        <v>2.186635187927698e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.51666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3022534.976640734</v>
+        <v>3121365.133104481</v>
       </c>
     </row>
     <row r="5">
@@ -19607,28 +19607,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2220.732152255672</v>
+        <v>2300.499186922271</v>
       </c>
       <c r="AB5" t="n">
-        <v>3038.50370250444</v>
+        <v>3147.644478408493</v>
       </c>
       <c r="AC5" t="n">
-        <v>2748.513173704032</v>
+        <v>2847.237707135839</v>
       </c>
       <c r="AD5" t="n">
-        <v>2220732.152255672</v>
+        <v>2300499.186922271</v>
       </c>
       <c r="AE5" t="n">
-        <v>3038503.70250444</v>
+        <v>3147644.478408493</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.174257653153874e-06</v>
+        <v>2.301528772018115e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.79375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2748513.173704032</v>
+        <v>2847237.707135839</v>
       </c>
     </row>
     <row r="6">
@@ -19713,28 +19713,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2094.641010870891</v>
+        <v>2174.237453336899</v>
       </c>
       <c r="AB6" t="n">
-        <v>2865.980240113051</v>
+        <v>2974.88760424225</v>
       </c>
       <c r="AC6" t="n">
-        <v>2592.455108425191</v>
+        <v>2690.968506574345</v>
       </c>
       <c r="AD6" t="n">
-        <v>2094641.010870892</v>
+        <v>2174237.453336899</v>
       </c>
       <c r="AE6" t="n">
-        <v>2865980.240113051</v>
+        <v>2974887.60424225</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.210331246312203e-06</v>
+        <v>2.372232516073756e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.38125</v>
       </c>
       <c r="AH6" t="n">
-        <v>2592455.108425191</v>
+        <v>2690968.506574345</v>
       </c>
     </row>
     <row r="7">
@@ -19819,28 +19819,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2011.683285055859</v>
+        <v>2080.055118564353</v>
       </c>
       <c r="AB7" t="n">
-        <v>2752.473819816358</v>
+        <v>2846.02317877509</v>
       </c>
       <c r="AC7" t="n">
-        <v>2489.781581574353</v>
+        <v>2574.402721011414</v>
       </c>
       <c r="AD7" t="n">
-        <v>2011683.285055859</v>
+        <v>2080055.118564353</v>
       </c>
       <c r="AE7" t="n">
-        <v>2752473.819816358</v>
+        <v>2846023.17877509</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.234121159041618e-06</v>
+        <v>2.418860416248382e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.12291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2489781.581574353</v>
+        <v>2574402.721011414</v>
       </c>
     </row>
     <row r="8">
@@ -19925,28 +19925,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1928.660239039779</v>
+        <v>2008.341932851807</v>
       </c>
       <c r="AB8" t="n">
-        <v>2638.878025538869</v>
+        <v>2747.902034320718</v>
       </c>
       <c r="AC8" t="n">
-        <v>2387.02721047001</v>
+        <v>2485.646120869876</v>
       </c>
       <c r="AD8" t="n">
-        <v>1928660.239039779</v>
+        <v>2008341.932851807</v>
       </c>
       <c r="AE8" t="n">
-        <v>2638878.025538869</v>
+        <v>2747902.034320718</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.252935403749195e-06</v>
+        <v>2.455736075863608e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.92708333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2387027.21047001</v>
+        <v>2485646.120869876</v>
       </c>
     </row>
     <row r="9">
@@ -20031,28 +20031,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1875.129494714656</v>
+        <v>1954.811188526684</v>
       </c>
       <c r="AB9" t="n">
-        <v>2565.63489954347</v>
+        <v>2674.658908325319</v>
       </c>
       <c r="AC9" t="n">
-        <v>2320.774305622238</v>
+        <v>2419.393216022104</v>
       </c>
       <c r="AD9" t="n">
-        <v>1875129.494714656</v>
+        <v>1954811.188526683</v>
       </c>
       <c r="AE9" t="n">
-        <v>2565634.89954347</v>
+        <v>2674658.908325319</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.265063594552426e-06</v>
+        <v>2.479507162227143e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.80208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2320774.305622238</v>
+        <v>2419393.216022104</v>
       </c>
     </row>
     <row r="10">
@@ -20137,28 +20137,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1830.653411224561</v>
+        <v>1910.335105036589</v>
       </c>
       <c r="AB10" t="n">
-        <v>2504.780759966</v>
+        <v>2613.804768747849</v>
       </c>
       <c r="AC10" t="n">
-        <v>2265.727999716721</v>
+        <v>2364.346910116587</v>
       </c>
       <c r="AD10" t="n">
-        <v>1830653.411224561</v>
+        <v>1910335.105036589</v>
       </c>
       <c r="AE10" t="n">
-        <v>2504780.759966</v>
+        <v>2613804.768747849</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.275947868350197e-06</v>
+        <v>2.500840188450828e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.69375</v>
       </c>
       <c r="AH10" t="n">
-        <v>2265727.999716721</v>
+        <v>2364346.910116587</v>
       </c>
     </row>
     <row r="11">
@@ -20243,28 +20243,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1784.652651654726</v>
+        <v>1864.334345466754</v>
       </c>
       <c r="AB11" t="n">
-        <v>2441.840491312268</v>
+        <v>2550.864500094117</v>
       </c>
       <c r="AC11" t="n">
-        <v>2208.794661966079</v>
+        <v>2307.413572365946</v>
       </c>
       <c r="AD11" t="n">
-        <v>1784652.651654726</v>
+        <v>1864334.345466754</v>
       </c>
       <c r="AE11" t="n">
-        <v>2441840.491312268</v>
+        <v>2550864.500094117</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.284655287388415e-06</v>
+        <v>2.517906609429776e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.60833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2208794.661966079</v>
+        <v>2307413.572365946</v>
       </c>
     </row>
     <row r="12">
@@ -20349,28 +20349,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1744.940626300068</v>
+        <v>1824.622320112096</v>
       </c>
       <c r="AB12" t="n">
-        <v>2387.504746251115</v>
+        <v>2496.528755032963</v>
       </c>
       <c r="AC12" t="n">
-        <v>2159.644644152864</v>
+        <v>2258.263554552731</v>
       </c>
       <c r="AD12" t="n">
-        <v>1744940.626300068</v>
+        <v>1824622.320112096</v>
       </c>
       <c r="AE12" t="n">
-        <v>2387504.746251115</v>
+        <v>2496528.755032963</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.291496830918443e-06</v>
+        <v>2.531315940198949e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.540625</v>
       </c>
       <c r="AH12" t="n">
-        <v>2159644.644152864</v>
+        <v>2258263.554552731</v>
       </c>
     </row>
     <row r="13">
@@ -20455,28 +20455,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1707.865307657805</v>
+        <v>1776.151800311726</v>
       </c>
       <c r="AB13" t="n">
-        <v>2336.776659637149</v>
+        <v>2430.209251473683</v>
       </c>
       <c r="AC13" t="n">
-        <v>2113.75797492802</v>
+        <v>2198.273491333141</v>
       </c>
       <c r="AD13" t="n">
-        <v>1707865.307657805</v>
+        <v>1776151.800311726</v>
       </c>
       <c r="AE13" t="n">
-        <v>2336776.659637149</v>
+        <v>2430209.251473683</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.296783478191646e-06</v>
+        <v>2.54167769579331e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.48958333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2113757.97492802</v>
+        <v>2198273.491333141</v>
       </c>
     </row>
     <row r="14">
@@ -20561,28 +20561,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1683.992688688214</v>
+        <v>1752.279181342136</v>
       </c>
       <c r="AB14" t="n">
-        <v>2304.113089177337</v>
+        <v>2397.54568101387</v>
       </c>
       <c r="AC14" t="n">
-        <v>2084.211769789283</v>
+        <v>2168.727286194404</v>
       </c>
       <c r="AD14" t="n">
-        <v>1683992.688688214</v>
+        <v>1752279.181342136</v>
       </c>
       <c r="AE14" t="n">
-        <v>2304113.089177337</v>
+        <v>2397545.681013871</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.30082620845939e-06</v>
+        <v>2.549601391247822e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.45104166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2084211.769789283</v>
+        <v>2168727.286194404</v>
       </c>
     </row>
     <row r="15">
@@ -20667,28 +20667,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1682.251196623715</v>
+        <v>1750.537689277637</v>
       </c>
       <c r="AB15" t="n">
-        <v>2301.730302905483</v>
+        <v>2395.162894742016</v>
       </c>
       <c r="AC15" t="n">
-        <v>2082.056393294953</v>
+        <v>2166.571909700073</v>
       </c>
       <c r="AD15" t="n">
-        <v>1682251.196623716</v>
+        <v>1750537.689277637</v>
       </c>
       <c r="AE15" t="n">
-        <v>2301730.302905483</v>
+        <v>2395162.894742016</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.301448166962119e-06</v>
+        <v>2.550820421317747e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.44479166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2082056.393294953</v>
+        <v>2166571.909700073</v>
       </c>
     </row>
     <row r="16">
@@ -20773,28 +20773,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1690.351445673351</v>
+        <v>1758.637938327272</v>
       </c>
       <c r="AB16" t="n">
-        <v>2312.81342101296</v>
+        <v>2406.246012849494</v>
       </c>
       <c r="AC16" t="n">
-        <v>2092.081754165506</v>
+        <v>2176.597270570627</v>
       </c>
       <c r="AD16" t="n">
-        <v>1690351.44567335</v>
+        <v>1758637.938327272</v>
       </c>
       <c r="AE16" t="n">
-        <v>2312813.42101296</v>
+        <v>2406246.012849493</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.301292677336437e-06</v>
+        <v>2.550515663800265e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.446875</v>
       </c>
       <c r="AH16" t="n">
-        <v>2092081.754165506</v>
+        <v>2176597.270570627</v>
       </c>
     </row>
     <row r="17">
@@ -20879,28 +20879,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1699.546294871843</v>
+        <v>1767.832787525764</v>
       </c>
       <c r="AB17" t="n">
-        <v>2325.394219334455</v>
+        <v>2418.826811170988</v>
       </c>
       <c r="AC17" t="n">
-        <v>2103.461858752459</v>
+        <v>2187.97737515758</v>
       </c>
       <c r="AD17" t="n">
-        <v>1699546.294871843</v>
+        <v>1767832.787525764</v>
       </c>
       <c r="AE17" t="n">
-        <v>2325394.219334455</v>
+        <v>2418826.811170988</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.301137187710755e-06</v>
+        <v>2.550210906282784e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>2103461.858752459</v>
+        <v>2187977.37515758</v>
       </c>
     </row>
   </sheetData>
@@ -21176,28 +21176,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7321.132876545509</v>
+        <v>7472.444029657549</v>
       </c>
       <c r="AB2" t="n">
-        <v>10017.09698727747</v>
+        <v>10224.12758234233</v>
       </c>
       <c r="AC2" t="n">
-        <v>9061.079309895253</v>
+        <v>9248.351195536377</v>
       </c>
       <c r="AD2" t="n">
-        <v>7321132.876545509</v>
+        <v>7472444.029657548</v>
       </c>
       <c r="AE2" t="n">
-        <v>10017096.98727747</v>
+        <v>10224127.58234233</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.0223502414359e-07</v>
+        <v>1.157919136550234e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.35</v>
       </c>
       <c r="AH2" t="n">
-        <v>9061079.309895253</v>
+        <v>9248351.195536377</v>
       </c>
     </row>
     <row r="3">
@@ -21282,28 +21282,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3359.424024177956</v>
+        <v>3464.151578717426</v>
       </c>
       <c r="AB3" t="n">
-        <v>4596.512157208542</v>
+        <v>4739.805017583077</v>
       </c>
       <c r="AC3" t="n">
-        <v>4157.827488169715</v>
+        <v>4287.444679062892</v>
       </c>
       <c r="AD3" t="n">
-        <v>3359424.024177956</v>
+        <v>3464151.578717426</v>
       </c>
       <c r="AE3" t="n">
-        <v>4596512.157208541</v>
+        <v>4739805.017583077</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.427347152543727e-07</v>
+        <v>1.812598941809473e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.83541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4157827.488169715</v>
+        <v>4287444.679062892</v>
       </c>
     </row>
     <row r="4">
@@ -21388,28 +21388,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2728.380375584932</v>
+        <v>2821.462052858396</v>
       </c>
       <c r="AB4" t="n">
-        <v>3733.090397522565</v>
+        <v>3860.448854841909</v>
       </c>
       <c r="AC4" t="n">
-        <v>3376.809489408151</v>
+        <v>3492.013034309648</v>
       </c>
       <c r="AD4" t="n">
-        <v>2728380.375584932</v>
+        <v>2821462.052858396</v>
       </c>
       <c r="AE4" t="n">
-        <v>3733090.397522565</v>
+        <v>3860448.854841909</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.064613799320872e-06</v>
+        <v>2.046936232282579e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.90625</v>
       </c>
       <c r="AH4" t="n">
-        <v>3376809.48940815</v>
+        <v>3492013.034309648</v>
       </c>
     </row>
     <row r="5">
@@ -21494,28 +21494,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2478.188876430046</v>
+        <v>2559.624765946058</v>
       </c>
       <c r="AB5" t="n">
-        <v>3390.767350708888</v>
+        <v>3502.191527442587</v>
       </c>
       <c r="AC5" t="n">
-        <v>3067.157273728969</v>
+        <v>3167.947283420015</v>
       </c>
       <c r="AD5" t="n">
-        <v>2478188.876430046</v>
+        <v>2559624.765946058</v>
       </c>
       <c r="AE5" t="n">
-        <v>3390767.350708887</v>
+        <v>3502191.527442587</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.12692448104987e-06</v>
+        <v>2.166741172036955e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.08229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3067157.27372897</v>
+        <v>3167947.283420015</v>
       </c>
     </row>
     <row r="6">
@@ -21600,28 +21600,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2321.679087032968</v>
+        <v>2403.200227894999</v>
       </c>
       <c r="AB6" t="n">
-        <v>3176.623752131197</v>
+        <v>3288.164573517545</v>
       </c>
       <c r="AC6" t="n">
-        <v>2873.451239647113</v>
+        <v>2974.34676158887</v>
       </c>
       <c r="AD6" t="n">
-        <v>2321679.087032968</v>
+        <v>2403200.227895</v>
       </c>
       <c r="AE6" t="n">
-        <v>3176623.752131197</v>
+        <v>3288164.573517545</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.16592578795115e-06</v>
+        <v>2.241729104988348e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.61145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2873451.239647113</v>
+        <v>2974346.761588871</v>
       </c>
     </row>
     <row r="7">
@@ -21706,28 +21706,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2224.453634759389</v>
+        <v>2305.804183420828</v>
       </c>
       <c r="AB7" t="n">
-        <v>3043.595599046246</v>
+        <v>3154.903008657747</v>
       </c>
       <c r="AC7" t="n">
-        <v>2753.119106786409</v>
+        <v>2853.803493445515</v>
       </c>
       <c r="AD7" t="n">
-        <v>2224453.634759389</v>
+        <v>2305804.183420829</v>
       </c>
       <c r="AE7" t="n">
-        <v>3043595.599046246</v>
+        <v>3154903.008657747</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.192129791025447e-06</v>
+        <v>2.292111622440066e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.31145833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2753119.106786409</v>
+        <v>2853803.493445516</v>
       </c>
     </row>
     <row r="8">
@@ -21812,28 +21812,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2153.96063447188</v>
+        <v>2223.835987576461</v>
       </c>
       <c r="AB8" t="n">
-        <v>2947.143966121017</v>
+        <v>3042.750506921894</v>
       </c>
       <c r="AC8" t="n">
-        <v>2665.872682336962</v>
+        <v>2752.354669068311</v>
       </c>
       <c r="AD8" t="n">
-        <v>2153960.63447188</v>
+        <v>2223835.987576461</v>
       </c>
       <c r="AE8" t="n">
-        <v>2947143.966121017</v>
+        <v>3042750.506921894</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.210716351345588e-06</v>
+        <v>2.327848059237214e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.10729166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2665872.682336962</v>
+        <v>2752354.669068311</v>
       </c>
     </row>
     <row r="9">
@@ -21918,28 +21918,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2081.913369371176</v>
+        <v>2163.349169378636</v>
       </c>
       <c r="AB9" t="n">
-        <v>2848.565719509226</v>
+        <v>2959.989773773369</v>
       </c>
       <c r="AC9" t="n">
-        <v>2576.702605226361</v>
+        <v>2677.492504136178</v>
       </c>
       <c r="AD9" t="n">
-        <v>2081913.369371176</v>
+        <v>2163349.169378636</v>
       </c>
       <c r="AE9" t="n">
-        <v>2848565.719509226</v>
+        <v>2959989.773773369</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.22640828341915e-06</v>
+        <v>2.358018985385627e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.940625</v>
       </c>
       <c r="AH9" t="n">
-        <v>2576702.605226361</v>
+        <v>2677492.504136178</v>
       </c>
     </row>
     <row r="10">
@@ -22024,28 +22024,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2033.661194285401</v>
+        <v>2115.096994292862</v>
       </c>
       <c r="AB10" t="n">
-        <v>2782.544964821142</v>
+        <v>2893.969019085287</v>
       </c>
       <c r="AC10" t="n">
-        <v>2516.982778704998</v>
+        <v>2617.772677614815</v>
       </c>
       <c r="AD10" t="n">
-        <v>2033661.194285401</v>
+        <v>2115096.994292862</v>
       </c>
       <c r="AE10" t="n">
-        <v>2782544.964821143</v>
+        <v>2893969.019085287</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.237377400985135e-06</v>
+        <v>2.379109341528206e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.825</v>
       </c>
       <c r="AH10" t="n">
-        <v>2516982.778704998</v>
+        <v>2617772.677614815</v>
       </c>
     </row>
     <row r="11">
@@ -22130,28 +22130,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1991.134329079456</v>
+        <v>2072.570129086916</v>
       </c>
       <c r="AB11" t="n">
-        <v>2724.357831693487</v>
+        <v>2835.781885957631</v>
       </c>
       <c r="AC11" t="n">
-        <v>2464.348943896891</v>
+        <v>2565.138842806708</v>
       </c>
       <c r="AD11" t="n">
-        <v>1991134.329079456</v>
+        <v>2072570.129086916</v>
       </c>
       <c r="AE11" t="n">
-        <v>2724357.831693487</v>
+        <v>2835781.885957631</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.24590893686979e-06</v>
+        <v>2.395512951861324e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.73854166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2464348.943896892</v>
+        <v>2565138.842806708</v>
       </c>
     </row>
     <row r="12">
@@ -22236,28 +22236,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1952.750526407557</v>
+        <v>2034.186326415017</v>
       </c>
       <c r="AB12" t="n">
-        <v>2671.839419503933</v>
+        <v>2783.263473768077</v>
       </c>
       <c r="AC12" t="n">
-        <v>2416.842815256654</v>
+        <v>2517.632714166471</v>
       </c>
       <c r="AD12" t="n">
-        <v>1952750.526407557</v>
+        <v>2034186.326415017</v>
       </c>
       <c r="AE12" t="n">
-        <v>2671839.419503933</v>
+        <v>2783263.473768077</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.254135775044278e-06</v>
+        <v>2.411330718968259e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.65416666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2416842.815256654</v>
+        <v>2517632.714166471</v>
       </c>
     </row>
     <row r="13">
@@ -22342,28 +22342,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1916.224676910193</v>
+        <v>1997.660476917653</v>
       </c>
       <c r="AB13" t="n">
-        <v>2621.863140814888</v>
+        <v>2733.287195079032</v>
       </c>
       <c r="AC13" t="n">
-        <v>2371.636202463544</v>
+        <v>2472.42610137336</v>
       </c>
       <c r="AD13" t="n">
-        <v>1916224.676910193</v>
+        <v>1997660.476917653</v>
       </c>
       <c r="AE13" t="n">
-        <v>2621863.140814888</v>
+        <v>2733287.195079032</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.260229729247604e-06</v>
+        <v>2.423047583491914e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.59270833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2371636.202463544</v>
+        <v>2472426.10137336</v>
       </c>
     </row>
     <row r="14">
@@ -22448,28 +22448,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1882.612933360587</v>
+        <v>1952.573537811186</v>
       </c>
       <c r="AB14" t="n">
-        <v>2575.874070444845</v>
+        <v>2671.597255898193</v>
       </c>
       <c r="AC14" t="n">
-        <v>2330.036264423553</v>
+        <v>2416.623763405567</v>
       </c>
       <c r="AD14" t="n">
-        <v>1882612.933360587</v>
+        <v>1952573.537811186</v>
       </c>
       <c r="AE14" t="n">
-        <v>2575874.070444845</v>
+        <v>2671597.255898193</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.266171334595845e-06</v>
+        <v>2.434471526402477e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.53333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2330036.264423553</v>
+        <v>2416623.763405567</v>
       </c>
     </row>
     <row r="15">
@@ -22554,28 +22554,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1848.920518045126</v>
+        <v>1918.710530295133</v>
       </c>
       <c r="AB15" t="n">
-        <v>2529.774621405773</v>
+        <v>2625.264395084273</v>
       </c>
       <c r="AC15" t="n">
-        <v>2288.336482099786</v>
+        <v>2374.71284579915</v>
       </c>
       <c r="AD15" t="n">
-        <v>1848920.518045126</v>
+        <v>1918710.530295133</v>
       </c>
       <c r="AE15" t="n">
-        <v>2529774.621405773</v>
+        <v>2625264.395084274</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.270589451393256e-06</v>
+        <v>2.442966253182128e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.48958333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>2288336.482099786</v>
+        <v>2374712.84579915</v>
       </c>
     </row>
     <row r="16">
@@ -22660,28 +22660,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1814.058429432903</v>
+        <v>1883.84844168291</v>
       </c>
       <c r="AB16" t="n">
-        <v>2482.074773759728</v>
+        <v>2577.564547438229</v>
       </c>
       <c r="AC16" t="n">
-        <v>2245.189040965923</v>
+        <v>2331.565404665287</v>
       </c>
       <c r="AD16" t="n">
-        <v>1814058.429432903</v>
+        <v>1883848.44168291</v>
       </c>
       <c r="AE16" t="n">
-        <v>2482074.773759728</v>
+        <v>2577564.547438229</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.2747028704805e-06</v>
+        <v>2.450875136735595e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.44895833333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>2245189.040965923</v>
+        <v>2331565.404665287</v>
       </c>
     </row>
     <row r="17">
@@ -22766,28 +22766,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1797.60245014605</v>
+        <v>1867.392462396056</v>
       </c>
       <c r="AB17" t="n">
-        <v>2459.558976912886</v>
+        <v>2555.048750591387</v>
       </c>
       <c r="AC17" t="n">
-        <v>2224.822120169025</v>
+        <v>2311.198483868388</v>
       </c>
       <c r="AD17" t="n">
-        <v>1797602.45014605</v>
+        <v>1867392.462396056</v>
       </c>
       <c r="AE17" t="n">
-        <v>2459558.976912886</v>
+        <v>2555048.750591387</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.276835754451664e-06</v>
+        <v>2.454976039318874e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.42916666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>2224822.120169025</v>
+        <v>2311198.483868388</v>
       </c>
     </row>
     <row r="18">
@@ -22872,28 +22872,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1795.512465073165</v>
+        <v>1865.302477323171</v>
       </c>
       <c r="AB18" t="n">
-        <v>2456.69936713253</v>
+        <v>2552.189140811032</v>
       </c>
       <c r="AC18" t="n">
-        <v>2222.235427532619</v>
+        <v>2308.611791231982</v>
       </c>
       <c r="AD18" t="n">
-        <v>1795512.465073165</v>
+        <v>1865302.477323171</v>
       </c>
       <c r="AE18" t="n">
-        <v>2456699.367132531</v>
+        <v>2552189.140811032</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.27759749872708e-06</v>
+        <v>2.456440647384332e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.421875</v>
       </c>
       <c r="AH18" t="n">
-        <v>2222235.427532619</v>
+        <v>2308611.791231982</v>
       </c>
     </row>
     <row r="19">
@@ -22978,28 +22978,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1801.987472615853</v>
+        <v>1871.77748486586</v>
       </c>
       <c r="AB19" t="n">
-        <v>2465.558758109609</v>
+        <v>2561.04853178811</v>
       </c>
       <c r="AC19" t="n">
-        <v>2230.249290669079</v>
+        <v>2316.625654368442</v>
       </c>
       <c r="AD19" t="n">
-        <v>1801987.472615853</v>
+        <v>1871777.48486586</v>
       </c>
       <c r="AE19" t="n">
-        <v>2465558.758109609</v>
+        <v>2561048.53178811</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.277749847582163e-06</v>
+        <v>2.456733568997423e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.41979166666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>2230249.290669078</v>
+        <v>2316625.654368442</v>
       </c>
     </row>
     <row r="20">
@@ -23084,28 +23084,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1807.084400168168</v>
+        <v>1876.874412418175</v>
       </c>
       <c r="AB20" t="n">
-        <v>2472.53259924726</v>
+        <v>2568.02237292576</v>
       </c>
       <c r="AC20" t="n">
-        <v>2236.557558196399</v>
+        <v>2322.933921895763</v>
       </c>
       <c r="AD20" t="n">
-        <v>1807084.400168168</v>
+        <v>1876874.412418175</v>
       </c>
       <c r="AE20" t="n">
-        <v>2472532.59924726</v>
+        <v>2568022.372925761</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.278663940712662e-06</v>
+        <v>2.458491098675971e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.41145833333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>2236557.558196399</v>
+        <v>2322933.921895763</v>
       </c>
     </row>
   </sheetData>
@@ -23381,28 +23381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>12011.27857354068</v>
+        <v>12216.68652380937</v>
       </c>
       <c r="AB2" t="n">
-        <v>16434.36124453148</v>
+        <v>16715.40946404833</v>
       </c>
       <c r="AC2" t="n">
-        <v>14865.88887312365</v>
+        <v>15120.11424502345</v>
       </c>
       <c r="AD2" t="n">
-        <v>12011278.57354068</v>
+        <v>12216686.52380937</v>
       </c>
       <c r="AE2" t="n">
-        <v>16434361.24453148</v>
+        <v>16715409.46404833</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.623271896862581e-07</v>
+        <v>8.612804885213341e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.13229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>14865888.87312365</v>
+        <v>15120114.24502345</v>
       </c>
     </row>
     <row r="3">
@@ -23487,28 +23487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4318.221860384648</v>
+        <v>4426.972307992953</v>
       </c>
       <c r="AB3" t="n">
-        <v>5908.381655881818</v>
+        <v>6057.178816030651</v>
       </c>
       <c r="AC3" t="n">
-        <v>5344.49400310997</v>
+        <v>5479.090171132319</v>
       </c>
       <c r="AD3" t="n">
-        <v>4318221.860384648</v>
+        <v>4426972.307992953</v>
       </c>
       <c r="AE3" t="n">
-        <v>5908381.655881818</v>
+        <v>6057178.816030651</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.343652908014721e-07</v>
+        <v>1.554359253139329e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.36041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>5344494.003109969</v>
+        <v>5479090.17113232</v>
       </c>
     </row>
     <row r="4">
@@ -23593,28 +23593,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3354.655937584286</v>
+        <v>3451.398781099243</v>
       </c>
       <c r="AB4" t="n">
-        <v>4589.988250777947</v>
+        <v>4722.356077268153</v>
       </c>
       <c r="AC4" t="n">
-        <v>4151.926214212496</v>
+        <v>4271.661041121884</v>
       </c>
       <c r="AD4" t="n">
-        <v>3354655.937584286</v>
+        <v>3451398.781099243</v>
       </c>
       <c r="AE4" t="n">
-        <v>4589988.250777947</v>
+        <v>4722356.077268153</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.709753287208532e-07</v>
+        <v>1.808853392400245e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.775</v>
       </c>
       <c r="AH4" t="n">
-        <v>4151926.214212496</v>
+        <v>4271661.041121884</v>
       </c>
     </row>
     <row r="5">
@@ -23699,28 +23699,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2976.445071195782</v>
+        <v>3073.102573856167</v>
       </c>
       <c r="AB5" t="n">
-        <v>4072.503457899344</v>
+        <v>4204.754517267353</v>
       </c>
       <c r="AC5" t="n">
-        <v>3683.829443671778</v>
+        <v>3803.458647549227</v>
       </c>
       <c r="AD5" t="n">
-        <v>2976445.071195783</v>
+        <v>3073102.573856167</v>
       </c>
       <c r="AE5" t="n">
-        <v>4072503.457899344</v>
+        <v>4204754.517267353</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.043471290716822e-06</v>
+        <v>1.943907871039245e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.67916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3683829.443671778</v>
+        <v>3803458.647549227</v>
       </c>
     </row>
     <row r="6">
@@ -23805,28 +23805,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2777.939341450717</v>
+        <v>2862.504078180284</v>
       </c>
       <c r="AB6" t="n">
-        <v>3800.899161007404</v>
+        <v>3916.604364533685</v>
       </c>
       <c r="AC6" t="n">
-        <v>3438.146679676191</v>
+        <v>3542.809140971193</v>
       </c>
       <c r="AD6" t="n">
-        <v>2777939.341450717</v>
+        <v>2862504.078180284</v>
       </c>
       <c r="AE6" t="n">
-        <v>3800899.161007404</v>
+        <v>3916604.364533685</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.08832173373664e-06</v>
+        <v>2.027460844639438e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.07395833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>3438146.679676191</v>
+        <v>3542809.140971193</v>
       </c>
     </row>
     <row r="7">
@@ -23911,28 +23911,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2641.691523271678</v>
+        <v>2726.341511347267</v>
       </c>
       <c r="AB7" t="n">
-        <v>3614.478885345318</v>
+        <v>3730.300733524249</v>
       </c>
       <c r="AC7" t="n">
-        <v>3269.518093480801</v>
+        <v>3374.286067026515</v>
       </c>
       <c r="AD7" t="n">
-        <v>2641691.523271678</v>
+        <v>2726341.511347266</v>
       </c>
       <c r="AE7" t="n">
-        <v>3614478.885345318</v>
+        <v>3730300.733524249</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.118025961572716e-06</v>
+        <v>2.082797568138582e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.70104166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3269518.093480801</v>
+        <v>3374286.067026515</v>
       </c>
     </row>
     <row r="8">
@@ -24017,28 +24017,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2551.162221135736</v>
+        <v>2635.641617010732</v>
       </c>
       <c r="AB8" t="n">
-        <v>3490.612700291978</v>
+        <v>3606.201136696063</v>
       </c>
       <c r="AC8" t="n">
-        <v>3157.473523281674</v>
+        <v>3262.030361544737</v>
       </c>
       <c r="AD8" t="n">
-        <v>2551162.221135736</v>
+        <v>2635641.617010732</v>
       </c>
       <c r="AE8" t="n">
-        <v>3490612.700291978</v>
+        <v>3606201.136696063</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.140230607133348e-06</v>
+        <v>2.124163138675071e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.434375</v>
       </c>
       <c r="AH8" t="n">
-        <v>3157473.523281674</v>
+        <v>3262030.361544738</v>
       </c>
     </row>
     <row r="9">
@@ -24123,28 +24123,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2484.562431421831</v>
+        <v>2569.041827296826</v>
       </c>
       <c r="AB9" t="n">
-        <v>3399.487929830051</v>
+        <v>3515.076366234136</v>
       </c>
       <c r="AC9" t="n">
-        <v>3075.045573018218</v>
+        <v>3179.602411281282</v>
       </c>
       <c r="AD9" t="n">
-        <v>2484562.431421831</v>
+        <v>2569041.827296826</v>
       </c>
       <c r="AE9" t="n">
-        <v>3399487.929830051</v>
+        <v>3515076.366234135</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.156700278012756e-06</v>
+        <v>2.154844886357765e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.24270833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>3075045.573018218</v>
+        <v>3179602.411281282</v>
       </c>
     </row>
     <row r="10">
@@ -24229,28 +24229,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2430.11619548068</v>
+        <v>2502.673417625449</v>
       </c>
       <c r="AB10" t="n">
-        <v>3324.992187816958</v>
+        <v>3424.268180154162</v>
       </c>
       <c r="AC10" t="n">
-        <v>3007.659600067427</v>
+        <v>3097.460831030694</v>
       </c>
       <c r="AD10" t="n">
-        <v>2430116.19548068</v>
+        <v>2502673.417625449</v>
       </c>
       <c r="AE10" t="n">
-        <v>3324992.187816958</v>
+        <v>3424268.180154162</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.169493683070869e-06</v>
+        <v>2.178678029647e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.09791666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>3007659.600067427</v>
+        <v>3097460.831030694</v>
       </c>
     </row>
     <row r="11">
@@ -24335,28 +24335,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2368.181014410697</v>
+        <v>2452.745661631712</v>
       </c>
       <c r="AB11" t="n">
-        <v>3240.249740689655</v>
+        <v>3355.954821746389</v>
       </c>
       <c r="AC11" t="n">
-        <v>2931.004853157186</v>
+        <v>3035.667203670962</v>
       </c>
       <c r="AD11" t="n">
-        <v>2368181.014410697</v>
+        <v>2452745.661631712</v>
       </c>
       <c r="AE11" t="n">
-        <v>3240249.740689655</v>
+        <v>3355954.821746389</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.180816581800462e-06</v>
+        <v>2.199771731178853e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.971875</v>
       </c>
       <c r="AH11" t="n">
-        <v>2931004.853157186</v>
+        <v>3035667.203670962</v>
       </c>
     </row>
     <row r="12">
@@ -24441,28 +24441,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2329.422751540749</v>
+        <v>2413.987398761764</v>
       </c>
       <c r="AB12" t="n">
-        <v>3187.218975537111</v>
+        <v>3302.924056593844</v>
       </c>
       <c r="AC12" t="n">
-        <v>2883.035269801655</v>
+        <v>2987.697620315431</v>
       </c>
       <c r="AD12" t="n">
-        <v>2329422.751540749</v>
+        <v>2413987.398761764</v>
       </c>
       <c r="AE12" t="n">
-        <v>3187218.975537111</v>
+        <v>3302924.056593844</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.189786670404426e-06</v>
+        <v>2.216482325898891e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.87395833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2883035.269801655</v>
+        <v>2987697.620315431</v>
       </c>
     </row>
     <row r="13">
@@ -24547,28 +24547,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2296.039121159787</v>
+        <v>2380.603768380803</v>
       </c>
       <c r="AB13" t="n">
-        <v>3141.542019668048</v>
+        <v>3257.247100724781</v>
       </c>
       <c r="AC13" t="n">
-        <v>2841.717658492728</v>
+        <v>2946.380009006503</v>
       </c>
       <c r="AD13" t="n">
-        <v>2296039.121159787</v>
+        <v>2380603.768380803</v>
       </c>
       <c r="AE13" t="n">
-        <v>3141542.019668048</v>
+        <v>3257247.100724781</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.196403948882759e-06</v>
+        <v>2.228809813807116e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.803125</v>
       </c>
       <c r="AH13" t="n">
-        <v>2841717.658492728</v>
+        <v>2946380.009006503</v>
       </c>
     </row>
     <row r="14">
@@ -24653,28 +24653,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2266.201079604587</v>
+        <v>2350.765726825602</v>
       </c>
       <c r="AB14" t="n">
-        <v>3100.71629485073</v>
+        <v>3216.421375907464</v>
       </c>
       <c r="AC14" t="n">
-        <v>2804.788283552712</v>
+        <v>2909.450634066487</v>
       </c>
       <c r="AD14" t="n">
-        <v>2266201.079604587</v>
+        <v>2350765.726825601</v>
       </c>
       <c r="AE14" t="n">
-        <v>3100716.29485073</v>
+        <v>3216421.375907463</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.202580075462538e-06</v>
+        <v>2.240315469188127e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.7375</v>
       </c>
       <c r="AH14" t="n">
-        <v>2804788.283552712</v>
+        <v>2909450.634066487</v>
       </c>
     </row>
     <row r="15">
@@ -24759,28 +24759,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2238.342386360333</v>
+        <v>2322.907033581348</v>
       </c>
       <c r="AB15" t="n">
-        <v>3062.598801715135</v>
+        <v>3178.303882771869</v>
       </c>
       <c r="AC15" t="n">
-        <v>2770.308670463742</v>
+        <v>2874.971020977518</v>
       </c>
       <c r="AD15" t="n">
-        <v>2238342.386360333</v>
+        <v>2322907.033581348</v>
       </c>
       <c r="AE15" t="n">
-        <v>3062598.801715135</v>
+        <v>3178303.882771869</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.207873898245205e-06</v>
+        <v>2.250177459514707e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.68125</v>
       </c>
       <c r="AH15" t="n">
-        <v>2770308.670463742</v>
+        <v>2874971.020977518</v>
       </c>
     </row>
     <row r="16">
@@ -24865,28 +24865,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2206.308442659917</v>
+        <v>2290.873089880932</v>
       </c>
       <c r="AB16" t="n">
-        <v>3018.768546706369</v>
+        <v>3134.473627763102</v>
       </c>
       <c r="AC16" t="n">
-        <v>2730.661513476864</v>
+        <v>2835.32386399064</v>
       </c>
       <c r="AD16" t="n">
-        <v>2206308.442659917</v>
+        <v>2290873.089880932</v>
       </c>
       <c r="AE16" t="n">
-        <v>3018768.546706369</v>
+        <v>3134473.627763102</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.212873619762168e-06</v>
+        <v>2.25949156148981e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.628125</v>
       </c>
       <c r="AH16" t="n">
-        <v>2730661.513476864</v>
+        <v>2835323.86399064</v>
       </c>
     </row>
     <row r="17">
@@ -24971,28 +24971,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2180.332611116024</v>
+        <v>2264.897258337042</v>
       </c>
       <c r="AB17" t="n">
-        <v>2983.227268015033</v>
+        <v>3098.932349071941</v>
       </c>
       <c r="AC17" t="n">
-        <v>2698.512244541445</v>
+        <v>2803.174595055267</v>
       </c>
       <c r="AD17" t="n">
-        <v>2180332.611116024</v>
+        <v>2264897.258337042</v>
       </c>
       <c r="AE17" t="n">
-        <v>2983227.268015033</v>
+        <v>3098932.349071941</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.217432189380576e-06</v>
+        <v>2.267983830937699e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.58229166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>2698512.244541445</v>
+        <v>2803174.595055267</v>
       </c>
     </row>
     <row r="18">
@@ -25077,28 +25077,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2157.952562795077</v>
+        <v>2242.517210016094</v>
       </c>
       <c r="AB18" t="n">
-        <v>2952.605898564263</v>
+        <v>3068.31097962117</v>
       </c>
       <c r="AC18" t="n">
-        <v>2670.813335613695</v>
+        <v>2775.475686127515</v>
       </c>
       <c r="AD18" t="n">
-        <v>2157952.562795077</v>
+        <v>2242517.210016094</v>
       </c>
       <c r="AE18" t="n">
-        <v>2952605.898564263</v>
+        <v>3068310.97962117</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.220520252670465e-06</v>
+        <v>2.273736658628204e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.55</v>
       </c>
       <c r="AH18" t="n">
-        <v>2670813.335613695</v>
+        <v>2775475.686127516</v>
       </c>
     </row>
     <row r="19">
@@ -25183,28 +25183,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2135.001609895853</v>
+        <v>2207.644083386644</v>
       </c>
       <c r="AB19" t="n">
-        <v>2921.203392282963</v>
+        <v>3020.596029272987</v>
       </c>
       <c r="AC19" t="n">
-        <v>2642.407840458188</v>
+        <v>2732.314583672213</v>
       </c>
       <c r="AD19" t="n">
-        <v>2135001.609895853</v>
+        <v>2207644.083386644</v>
       </c>
       <c r="AE19" t="n">
-        <v>2921203.392282963</v>
+        <v>3020596.029272988</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.22404946785891e-06</v>
+        <v>2.280311318845924e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.51354166666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>2642407.840458188</v>
+        <v>2732314.583672213</v>
       </c>
     </row>
     <row r="20">
@@ -25289,28 +25289,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2103.942296734095</v>
+        <v>2176.414178024292</v>
       </c>
       <c r="AB20" t="n">
-        <v>2878.706669774857</v>
+        <v>2977.865894989857</v>
       </c>
       <c r="AC20" t="n">
-        <v>2603.966945501731</v>
+        <v>2693.662553433058</v>
       </c>
       <c r="AD20" t="n">
-        <v>2103942.296734095</v>
+        <v>2176414.178024292</v>
       </c>
       <c r="AE20" t="n">
-        <v>2878706.669774857</v>
+        <v>2977865.894989857</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.227284581781651e-06</v>
+        <v>2.286338090712167e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.48125</v>
       </c>
       <c r="AH20" t="n">
-        <v>2603966.945501731</v>
+        <v>2693662.553433058</v>
       </c>
     </row>
     <row r="21">
@@ -25395,28 +25395,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2089.998860833804</v>
+        <v>2162.470742124</v>
       </c>
       <c r="AB21" t="n">
-        <v>2859.6286456351</v>
+        <v>2958.7878708501</v>
       </c>
       <c r="AC21" t="n">
-        <v>2586.709701209697</v>
+        <v>2676.405309141025</v>
       </c>
       <c r="AD21" t="n">
-        <v>2089998.860833803</v>
+        <v>2162470.742124</v>
       </c>
       <c r="AE21" t="n">
-        <v>2859628.6456351</v>
+        <v>2958787.8708501</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.229049189375873e-06</v>
+        <v>2.289625420821027e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.4625</v>
       </c>
       <c r="AH21" t="n">
-        <v>2586709.701209697</v>
+        <v>2676405.309141024</v>
       </c>
     </row>
     <row r="22">
@@ -25501,28 +25501,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2071.558946620888</v>
+        <v>2144.030827911084</v>
       </c>
       <c r="AB22" t="n">
-        <v>2834.398341497388</v>
+        <v>2933.557566712389</v>
       </c>
       <c r="AC22" t="n">
-        <v>2563.887341887935</v>
+        <v>2653.582949819262</v>
       </c>
       <c r="AD22" t="n">
-        <v>2071558.946620887</v>
+        <v>2144030.827911084</v>
       </c>
       <c r="AE22" t="n">
-        <v>2834398.341497388</v>
+        <v>2933557.566712389</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.231549050134355e-06</v>
+        <v>2.294282471808579e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.43854166666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>2563887.341887935</v>
+        <v>2653582.949819262</v>
       </c>
     </row>
     <row r="23">
@@ -25607,28 +25607,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2043.313870480593</v>
+        <v>2115.785751770789</v>
       </c>
       <c r="AB23" t="n">
-        <v>2795.752182237421</v>
+        <v>2894.911407452422</v>
       </c>
       <c r="AC23" t="n">
-        <v>2528.929517827514</v>
+        <v>2618.625125758841</v>
       </c>
       <c r="AD23" t="n">
-        <v>2043313.870480593</v>
+        <v>2115785.751770789</v>
       </c>
       <c r="AE23" t="n">
-        <v>2795752.182237422</v>
+        <v>2894911.407452422</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.234195961525688e-06</v>
+        <v>2.299213466971869e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.41041666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>2528929.517827514</v>
+        <v>2618625.125758841</v>
       </c>
     </row>
     <row r="24">
@@ -25713,28 +25713,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>2032.129046166301</v>
+        <v>2104.600927456498</v>
       </c>
       <c r="AB24" t="n">
-        <v>2780.448612170985</v>
+        <v>2879.607837385985</v>
       </c>
       <c r="AC24" t="n">
-        <v>2515.086499009522</v>
+        <v>2604.782106940849</v>
       </c>
       <c r="AD24" t="n">
-        <v>2032129.046166301</v>
+        <v>2104600.927456498</v>
       </c>
       <c r="AE24" t="n">
-        <v>2780448.612170985</v>
+        <v>2879607.837385985</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.235519417221355e-06</v>
+        <v>2.301678964553514e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.39791666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>2515086.499009522</v>
+        <v>2604782.106940849</v>
       </c>
     </row>
     <row r="25">
@@ -25819,28 +25819,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>2025.800858698077</v>
+        <v>2098.272739988273</v>
       </c>
       <c r="AB25" t="n">
-        <v>2771.790106897033</v>
+        <v>2870.949332112033</v>
       </c>
       <c r="AC25" t="n">
-        <v>2507.254349326628</v>
+        <v>2596.949957257955</v>
       </c>
       <c r="AD25" t="n">
-        <v>2025800.858698077</v>
+        <v>2098272.739988273</v>
       </c>
       <c r="AE25" t="n">
-        <v>2771790.106897033</v>
+        <v>2870949.332112033</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.23669582228417e-06</v>
+        <v>2.303870517959421e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.38541666666667</v>
       </c>
       <c r="AH25" t="n">
-        <v>2507254.349326628</v>
+        <v>2596949.957257955</v>
       </c>
     </row>
     <row r="26">
@@ -25925,28 +25925,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>2021.452468499508</v>
+        <v>2093.924349789705</v>
       </c>
       <c r="AB26" t="n">
-        <v>2765.840447589915</v>
+        <v>2864.999672804915</v>
       </c>
       <c r="AC26" t="n">
-        <v>2501.872517153382</v>
+        <v>2591.568125084709</v>
       </c>
       <c r="AD26" t="n">
-        <v>2021452.468499508</v>
+        <v>2093924.349789705</v>
       </c>
       <c r="AE26" t="n">
-        <v>2765840.447589915</v>
+        <v>2864999.672804915</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.23669582228417e-06</v>
+        <v>2.303870517959421e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12.38645833333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>2501872.517153382</v>
+        <v>2591568.125084709</v>
       </c>
     </row>
     <row r="27">
@@ -26031,28 +26031,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>2027.593482413635</v>
+        <v>2100.065363703832</v>
       </c>
       <c r="AB27" t="n">
-        <v>2774.242853749636</v>
+        <v>2873.402078964636</v>
       </c>
       <c r="AC27" t="n">
-        <v>2509.473009462071</v>
+        <v>2599.168617393397</v>
       </c>
       <c r="AD27" t="n">
-        <v>2027593.482413635</v>
+        <v>2100065.363703832</v>
       </c>
       <c r="AE27" t="n">
-        <v>2774242.853749636</v>
+        <v>2873402.078964636</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.237431075448429e-06</v>
+        <v>2.305240238838113e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>12.378125</v>
       </c>
       <c r="AH27" t="n">
-        <v>2509473.009462071</v>
+        <v>2599168.617393397</v>
       </c>
     </row>
     <row r="28">
@@ -26137,28 +26137,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>2036.840213066261</v>
+        <v>2109.312094356457</v>
       </c>
       <c r="AB28" t="n">
-        <v>2786.894638565524</v>
+        <v>2886.053863780525</v>
       </c>
       <c r="AC28" t="n">
-        <v>2520.917325692022</v>
+        <v>2610.612933623349</v>
       </c>
       <c r="AD28" t="n">
-        <v>2036840.213066261</v>
+        <v>2109312.094356457</v>
       </c>
       <c r="AE28" t="n">
-        <v>2786894.638565524</v>
+        <v>2886053.863780525</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.237431075448429e-06</v>
+        <v>2.305240238838113e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>12.37916666666667</v>
       </c>
       <c r="AH28" t="n">
-        <v>2520917.325692022</v>
+        <v>2610612.933623349</v>
       </c>
     </row>
   </sheetData>
@@ -26434,28 +26434,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4537.275205560961</v>
+        <v>4659.600523941162</v>
       </c>
       <c r="AB2" t="n">
-        <v>6208.10010670361</v>
+        <v>6375.471003923582</v>
       </c>
       <c r="AC2" t="n">
-        <v>5615.607745642807</v>
+        <v>5767.004999338627</v>
       </c>
       <c r="AD2" t="n">
-        <v>4537275.205560961</v>
+        <v>4659600.523941161</v>
       </c>
       <c r="AE2" t="n">
-        <v>6208100.106703609</v>
+        <v>6375471.003923582</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.695003887814104e-07</v>
+        <v>1.542461493956383e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.53541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5615607.745642806</v>
+        <v>5767004.999338628</v>
       </c>
     </row>
     <row r="3">
@@ -26540,28 +26540,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2544.515729210885</v>
+        <v>2633.479597123758</v>
       </c>
       <c r="AB3" t="n">
-        <v>3481.518676817866</v>
+        <v>3603.242965705118</v>
       </c>
       <c r="AC3" t="n">
-        <v>3149.24742064439</v>
+        <v>3259.35451424135</v>
       </c>
       <c r="AD3" t="n">
-        <v>2544515.729210885</v>
+        <v>2633479.597123758</v>
       </c>
       <c r="AE3" t="n">
-        <v>3481518.676817867</v>
+        <v>3603242.965705119</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.06890078813775e-06</v>
+        <v>2.142608802541439e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.50416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3149247.42064439</v>
+        <v>3259354.51424135</v>
       </c>
     </row>
     <row r="4">
@@ -26646,28 +26646,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2153.778042850116</v>
+        <v>2231.536175927861</v>
       </c>
       <c r="AB4" t="n">
-        <v>2946.894136208745</v>
+        <v>3053.286244332614</v>
       </c>
       <c r="AC4" t="n">
-        <v>2665.646695840878</v>
+        <v>2761.884890487552</v>
       </c>
       <c r="AD4" t="n">
-        <v>2153778.042850115</v>
+        <v>2231536.175927861</v>
       </c>
       <c r="AE4" t="n">
-        <v>2946894.136208745</v>
+        <v>3053286.244332614</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.173261394927207e-06</v>
+        <v>2.351799362813382e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.12395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2665646.695840878</v>
+        <v>2761884.890487552</v>
       </c>
     </row>
     <row r="5">
@@ -26752,28 +26752,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1969.101884992485</v>
+        <v>2046.945269416248</v>
       </c>
       <c r="AB5" t="n">
-        <v>2694.212069690861</v>
+        <v>2800.720822467199</v>
       </c>
       <c r="AC5" t="n">
-        <v>2437.080251109954</v>
+        <v>2533.423958007292</v>
       </c>
       <c r="AD5" t="n">
-        <v>1969101.884992485</v>
+        <v>2046945.269416248</v>
       </c>
       <c r="AE5" t="n">
-        <v>2694212.06969086</v>
+        <v>2800720.8224672</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.227191647521149e-06</v>
+        <v>2.459902411490498e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.503125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2437080.251109954</v>
+        <v>2533423.958007292</v>
       </c>
     </row>
     <row r="6">
@@ -26858,28 +26858,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1861.607275635932</v>
+        <v>1928.330266079137</v>
       </c>
       <c r="AB6" t="n">
-        <v>2547.133202841756</v>
+        <v>2638.426541976739</v>
       </c>
       <c r="AC6" t="n">
-        <v>2304.038384886442</v>
+        <v>2386.618815865387</v>
       </c>
       <c r="AD6" t="n">
-        <v>1861607.275635932</v>
+        <v>1928330.266079137</v>
       </c>
       <c r="AE6" t="n">
-        <v>2547133.202841756</v>
+        <v>2638426.541976739</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.259963423433692e-06</v>
+        <v>2.525593349624676e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.153125</v>
       </c>
       <c r="AH6" t="n">
-        <v>2304038.384886442</v>
+        <v>2386618.815865387</v>
       </c>
     </row>
     <row r="7">
@@ -26964,28 +26964,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1774.630157110009</v>
+        <v>1852.388200679201</v>
       </c>
       <c r="AB7" t="n">
-        <v>2428.127272114934</v>
+        <v>2534.519257769076</v>
       </c>
       <c r="AC7" t="n">
-        <v>2196.390213162314</v>
+        <v>2292.628297027714</v>
       </c>
       <c r="AD7" t="n">
-        <v>1774630.157110009</v>
+        <v>1852388.200679201</v>
       </c>
       <c r="AE7" t="n">
-        <v>2428127.272114934</v>
+        <v>2534519.257769076</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.281599158987604e-06</v>
+        <v>2.568962124315201e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.92916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2196390.213162314</v>
+        <v>2292628.297027715</v>
       </c>
     </row>
     <row r="8">
@@ -27070,28 +27070,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1711.528096643029</v>
+        <v>1789.28614021222</v>
       </c>
       <c r="AB8" t="n">
-        <v>2341.788249117579</v>
+        <v>2448.180234771721</v>
       </c>
       <c r="AC8" t="n">
-        <v>2118.291265342246</v>
+        <v>2214.529349207647</v>
       </c>
       <c r="AD8" t="n">
-        <v>1711528.096643029</v>
+        <v>1789286.14021222</v>
       </c>
       <c r="AE8" t="n">
-        <v>2341788.249117579</v>
+        <v>2448180.234771721</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.297666874362201e-06</v>
+        <v>2.601169817283899e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.76979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2118291.265342246</v>
+        <v>2214529.349207647</v>
       </c>
     </row>
     <row r="9">
@@ -27176,28 +27176,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1658.442881322773</v>
+        <v>1736.200924891965</v>
       </c>
       <c r="AB9" t="n">
-        <v>2269.154715561991</v>
+        <v>2375.546701216133</v>
       </c>
       <c r="AC9" t="n">
-        <v>2052.5897742874</v>
+        <v>2148.8278581528</v>
       </c>
       <c r="AD9" t="n">
-        <v>1658442.881322773</v>
+        <v>1736200.924891965</v>
       </c>
       <c r="AE9" t="n">
-        <v>2269154.715561991</v>
+        <v>2375546.701216133</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.309757432465857e-06</v>
+        <v>2.625405309022722e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.653125</v>
       </c>
       <c r="AH9" t="n">
-        <v>2052589.7742874</v>
+        <v>2148827.8581528</v>
       </c>
     </row>
     <row r="10">
@@ -27282,28 +27282,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1610.139373568051</v>
+        <v>1687.897417137243</v>
       </c>
       <c r="AB10" t="n">
-        <v>2203.063725251618</v>
+        <v>2309.455710905759</v>
       </c>
       <c r="AC10" t="n">
-        <v>1992.80641533296</v>
+        <v>2089.044499198361</v>
       </c>
       <c r="AD10" t="n">
-        <v>1610139.373568051</v>
+        <v>1687897.417137243</v>
       </c>
       <c r="AE10" t="n">
-        <v>2203063.725251617</v>
+        <v>2309455.710905759</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.318666264752762e-06</v>
+        <v>2.643263039777644e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.56666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1992806.41533296</v>
+        <v>2089044.499198361</v>
       </c>
     </row>
     <row r="11">
@@ -27388,28 +27388,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1570.233293611618</v>
+        <v>1637.041535400844</v>
       </c>
       <c r="AB11" t="n">
-        <v>2148.46246612323</v>
+        <v>2239.872449910862</v>
       </c>
       <c r="AC11" t="n">
-        <v>1943.416223742439</v>
+        <v>2026.102166972096</v>
       </c>
       <c r="AD11" t="n">
-        <v>1570233.293611618</v>
+        <v>1637041.535400844</v>
       </c>
       <c r="AE11" t="n">
-        <v>2148462.46612323</v>
+        <v>2239872.449910862</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.325506975258778e-06</v>
+        <v>2.65697522589303e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.503125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1943416.223742439</v>
+        <v>2026102.166972097</v>
       </c>
     </row>
     <row r="12">
@@ -27494,28 +27494,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1568.8863717959</v>
+        <v>1635.524021384533</v>
       </c>
       <c r="AB12" t="n">
-        <v>2146.619548272967</v>
+        <v>2237.796120285752</v>
       </c>
       <c r="AC12" t="n">
-        <v>1941.749191385253</v>
+        <v>2024.22399933226</v>
       </c>
       <c r="AD12" t="n">
-        <v>1568886.3717959</v>
+        <v>1635524.021384533</v>
       </c>
       <c r="AE12" t="n">
-        <v>2146619.548272967</v>
+        <v>2237796.120285752</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.326461493003804e-06</v>
+        <v>2.6588885541882e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.49270833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1941749.191385253</v>
+        <v>2024223.99933226</v>
       </c>
     </row>
     <row r="13">
@@ -27600,28 +27600,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1576.112728866344</v>
+        <v>1642.750378454978</v>
       </c>
       <c r="AB13" t="n">
-        <v>2156.506968821123</v>
+        <v>2247.683540833908</v>
       </c>
       <c r="AC13" t="n">
-        <v>1950.692970393375</v>
+        <v>2033.167778340382</v>
       </c>
       <c r="AD13" t="n">
-        <v>1576112.728866344</v>
+        <v>1642750.378454978</v>
       </c>
       <c r="AE13" t="n">
-        <v>2156506.968821123</v>
+        <v>2247683.540833908</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.326461493003804e-06</v>
+        <v>2.6588885541882e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.49375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1950692.970393375</v>
+        <v>2033167.778340382</v>
       </c>
     </row>
   </sheetData>
@@ -27897,28 +27897,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3085.815896048685</v>
+        <v>3192.183045262835</v>
       </c>
       <c r="AB2" t="n">
-        <v>4222.149445563349</v>
+        <v>4367.685671705593</v>
       </c>
       <c r="AC2" t="n">
-        <v>3819.193428302588</v>
+        <v>3950.839881283187</v>
       </c>
       <c r="AD2" t="n">
-        <v>3085815.896048686</v>
+        <v>3192183.045262835</v>
       </c>
       <c r="AE2" t="n">
-        <v>4222149.445563349</v>
+        <v>4367685.671705593</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.241935586773098e-07</v>
+        <v>1.933470721892938e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.67916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3819193.428302587</v>
+        <v>3950839.881283187</v>
       </c>
     </row>
     <row r="3">
@@ -28003,28 +28003,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1969.808066792697</v>
+        <v>2054.884717993102</v>
       </c>
       <c r="AB3" t="n">
-        <v>2695.178298784454</v>
+        <v>2811.583926273803</v>
       </c>
       <c r="AC3" t="n">
-        <v>2437.954264654965</v>
+        <v>2543.250302433055</v>
       </c>
       <c r="AD3" t="n">
-        <v>1969808.066792697</v>
+        <v>2054884.717993102</v>
       </c>
       <c r="AE3" t="n">
-        <v>2695178.298784454</v>
+        <v>2811583.926273803</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.184200676045913e-06</v>
+        <v>2.477421871731565e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.57708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2437954.264654965</v>
+        <v>2543250.302433055</v>
       </c>
     </row>
     <row r="4">
@@ -28109,28 +28109,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1704.713275485328</v>
+        <v>1779.230018533432</v>
       </c>
       <c r="AB4" t="n">
-        <v>2332.463910160921</v>
+        <v>2434.421005446025</v>
       </c>
       <c r="AC4" t="n">
-        <v>2109.856828208821</v>
+        <v>2202.083281417596</v>
       </c>
       <c r="AD4" t="n">
-        <v>1704713.275485328</v>
+        <v>1779230.018533432</v>
       </c>
       <c r="AE4" t="n">
-        <v>2332463.910160921</v>
+        <v>2434421.005446025</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.273189727688322e-06</v>
+        <v>2.663592532957404e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.55833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2109856.828208821</v>
+        <v>2202083.281417596</v>
       </c>
     </row>
     <row r="5">
@@ -28215,28 +28215,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1573.530390672204</v>
+        <v>1637.401974221987</v>
       </c>
       <c r="AB5" t="n">
-        <v>2152.97369977918</v>
+        <v>2240.365618207389</v>
       </c>
       <c r="AC5" t="n">
-        <v>1947.49691158982</v>
+        <v>2026.548267978569</v>
       </c>
       <c r="AD5" t="n">
-        <v>1573530.390672204</v>
+        <v>1637401.974221987</v>
       </c>
       <c r="AE5" t="n">
-        <v>2152973.69977918</v>
+        <v>2240365.618207389</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.318595686999346e-06</v>
+        <v>2.758584639430179e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.09166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1947496.91158982</v>
+        <v>2026548.267978569</v>
       </c>
     </row>
     <row r="6">
@@ -28321,28 +28321,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1469.946911574521</v>
+        <v>1544.378313768054</v>
       </c>
       <c r="AB6" t="n">
-        <v>2011.246213897152</v>
+        <v>2113.086542060058</v>
       </c>
       <c r="AC6" t="n">
-        <v>1819.295698044597</v>
+        <v>1911.416528221433</v>
       </c>
       <c r="AD6" t="n">
-        <v>1469946.911574521</v>
+        <v>1544378.313768054</v>
       </c>
       <c r="AE6" t="n">
-        <v>2011246.213897152</v>
+        <v>2113086.542060058</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.346767267593777e-06</v>
+        <v>2.817521347825696e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.81666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1819295.698044597</v>
+        <v>1911416.528221433</v>
       </c>
     </row>
     <row r="7">
@@ -28427,28 +28427,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1402.175541350334</v>
+        <v>1476.606943543866</v>
       </c>
       <c r="AB7" t="n">
-        <v>1918.518435294578</v>
+        <v>2020.358763457484</v>
       </c>
       <c r="AC7" t="n">
-        <v>1735.417728487599</v>
+        <v>1827.538558664435</v>
       </c>
       <c r="AD7" t="n">
-        <v>1402175.541350334</v>
+        <v>1476606.943543867</v>
       </c>
       <c r="AE7" t="n">
-        <v>1918518.435294579</v>
+        <v>2020358.763457484</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.363338785590502e-06</v>
+        <v>2.852189999823059e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.66145833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1735417.728487599</v>
+        <v>1827538.558664435</v>
       </c>
     </row>
     <row r="8">
@@ -28533,28 +28533,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1385.701598820315</v>
+        <v>1460.133001013848</v>
       </c>
       <c r="AB8" t="n">
-        <v>1895.978060345956</v>
+        <v>1997.818388508862</v>
       </c>
       <c r="AC8" t="n">
-        <v>1715.028575288458</v>
+        <v>1807.149405465294</v>
       </c>
       <c r="AD8" t="n">
-        <v>1385701.598820315</v>
+        <v>1460133.001013848</v>
       </c>
       <c r="AE8" t="n">
-        <v>1895978.060345956</v>
+        <v>1997818.388508861</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.368807386529421e-06</v>
+        <v>2.863630654982189e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.61145833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1715028.575288458</v>
+        <v>1807149.405465294</v>
       </c>
     </row>
     <row r="9">
@@ -28639,28 +28639,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1393.102430222112</v>
+        <v>1467.533832415645</v>
       </c>
       <c r="AB9" t="n">
-        <v>1906.104204371533</v>
+        <v>2007.944532534438</v>
       </c>
       <c r="AC9" t="n">
-        <v>1724.188294340365</v>
+        <v>1816.309124517202</v>
       </c>
       <c r="AD9" t="n">
-        <v>1393102.430222112</v>
+        <v>1467533.832415645</v>
       </c>
       <c r="AE9" t="n">
-        <v>1906104.204371533</v>
+        <v>2007944.532534438</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.36947024724929e-06</v>
+        <v>2.865017401062083e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1724188.294340366</v>
+        <v>1816309.124517202</v>
       </c>
     </row>
   </sheetData>
@@ -54029,28 +54029,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2281.120764282874</v>
+        <v>2373.423890254348</v>
       </c>
       <c r="AB2" t="n">
-        <v>3121.130065637598</v>
+        <v>3247.423274718297</v>
       </c>
       <c r="AC2" t="n">
-        <v>2823.253792706586</v>
+        <v>2937.493755166252</v>
       </c>
       <c r="AD2" t="n">
-        <v>2281120.764282873</v>
+        <v>2373423.890254348</v>
       </c>
       <c r="AE2" t="n">
-        <v>3121130.065637598</v>
+        <v>3247423.274718297</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.052719230049703e-06</v>
+        <v>2.288459772282779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.96145833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2823253.792706586</v>
+        <v>2937493.755166252</v>
       </c>
     </row>
     <row r="3">
@@ -54135,28 +54135,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1575.130107409486</v>
+        <v>1657.082507323495</v>
       </c>
       <c r="AB3" t="n">
-        <v>2155.162502793651</v>
+        <v>2267.293391840714</v>
       </c>
       <c r="AC3" t="n">
-        <v>1949.476818316595</v>
+        <v>2050.906092689697</v>
       </c>
       <c r="AD3" t="n">
-        <v>1575130.107409486</v>
+        <v>1657082.507323495</v>
       </c>
       <c r="AE3" t="n">
-        <v>2155162.502793651</v>
+        <v>2267293.391840714</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.279171290446325e-06</v>
+        <v>2.780733890371942e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.96041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1949476.818316595</v>
+        <v>2050906.092689697</v>
       </c>
     </row>
     <row r="4">
@@ -54241,28 +54241,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1381.587205808385</v>
+        <v>1443.1796065343</v>
       </c>
       <c r="AB4" t="n">
-        <v>1890.348566312824</v>
+        <v>1974.622006250966</v>
       </c>
       <c r="AC4" t="n">
-        <v>1709.936352264804</v>
+        <v>1786.166853373765</v>
       </c>
       <c r="AD4" t="n">
-        <v>1381587.205808385</v>
+        <v>1443179.6065343</v>
       </c>
       <c r="AE4" t="n">
-        <v>1890348.566312824</v>
+        <v>1974622.006250966</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.356826690415795e-06</v>
+        <v>2.949545529656114e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.16041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1709936.352264804</v>
+        <v>1786166.853373765</v>
       </c>
     </row>
     <row r="5">
@@ -54347,28 +54347,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1264.79911369563</v>
+        <v>1336.571469261317</v>
       </c>
       <c r="AB5" t="n">
-        <v>1730.553946357162</v>
+        <v>1828.756049614991</v>
       </c>
       <c r="AC5" t="n">
-        <v>1565.392306564553</v>
+        <v>1654.222138914971</v>
       </c>
       <c r="AD5" t="n">
-        <v>1264799.11369563</v>
+        <v>1336571.469261317</v>
       </c>
       <c r="AE5" t="n">
-        <v>1730553.946357162</v>
+        <v>1828756.049614991</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.393683006074594e-06</v>
+        <v>3.029665844106659e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1565392.306564553</v>
+        <v>1654222.138914971</v>
       </c>
     </row>
     <row r="6">
@@ -54453,28 +54453,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1251.639124973028</v>
+        <v>1323.411480538714</v>
       </c>
       <c r="AB6" t="n">
-        <v>1712.54786920917</v>
+        <v>1810.749972466998</v>
       </c>
       <c r="AC6" t="n">
-        <v>1549.104704147877</v>
+        <v>1637.934536498295</v>
       </c>
       <c r="AD6" t="n">
-        <v>1251639.124973028</v>
+        <v>1323411.480538714</v>
       </c>
       <c r="AE6" t="n">
-        <v>1712547.86920917</v>
+        <v>1810749.972466998</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.399511446690404e-06</v>
+        <v>3.042336033368606e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.759375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1549104.704147877</v>
+        <v>1637934.536498295</v>
       </c>
     </row>
   </sheetData>
@@ -54750,28 +54750,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1174.731656891959</v>
+        <v>1241.233046933222</v>
       </c>
       <c r="AB2" t="n">
-        <v>1607.31967846262</v>
+        <v>1698.309814151346</v>
       </c>
       <c r="AC2" t="n">
-        <v>1453.919344237484</v>
+        <v>1536.225509081535</v>
       </c>
       <c r="AD2" t="n">
-        <v>1174731.656891959</v>
+        <v>1241233.046933222</v>
       </c>
       <c r="AE2" t="n">
-        <v>1607319.67846262</v>
+        <v>1698309.814151346</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.330071099844772e-06</v>
+        <v>3.163609974383571e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.40833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1453919.344237484</v>
+        <v>1536225.509081535</v>
       </c>
     </row>
     <row r="3">
@@ -54856,28 +54856,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>997.0446321958334</v>
+        <v>1063.460681382525</v>
       </c>
       <c r="AB3" t="n">
-        <v>1364.2004522751</v>
+        <v>1455.073820841628</v>
       </c>
       <c r="AC3" t="n">
-        <v>1234.003075777324</v>
+        <v>1316.203617589436</v>
       </c>
       <c r="AD3" t="n">
-        <v>997044.6321958334</v>
+        <v>1063460.681382525</v>
       </c>
       <c r="AE3" t="n">
-        <v>1364200.4522751</v>
+        <v>1455073.820841628</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.429426251859736e-06</v>
+        <v>3.399928882416097e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.40833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1234003.075777324</v>
+        <v>1316203.617589436</v>
       </c>
     </row>
     <row r="4">
@@ -54962,28 +54962,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1011.505324069284</v>
+        <v>1077.921373255976</v>
       </c>
       <c r="AB4" t="n">
-        <v>1383.986208857055</v>
+        <v>1474.859577423583</v>
       </c>
       <c r="AC4" t="n">
-        <v>1251.900507520581</v>
+        <v>1334.101049332693</v>
       </c>
       <c r="AD4" t="n">
-        <v>1011505.324069284</v>
+        <v>1077921.373255976</v>
       </c>
       <c r="AE4" t="n">
-        <v>1383986.208857055</v>
+        <v>1474859.577423583</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.429242260837487e-06</v>
+        <v>3.399491254808629e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.41041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1251900.507520581</v>
+        <v>1334101.049332693</v>
       </c>
     </row>
   </sheetData>
@@ -55259,28 +55259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6506.187152130688</v>
+        <v>6644.466317253082</v>
       </c>
       <c r="AB2" t="n">
-        <v>8902.052294265115</v>
+        <v>9091.251948431804</v>
       </c>
       <c r="AC2" t="n">
-        <v>8052.452917408982</v>
+        <v>8223.595622125376</v>
       </c>
       <c r="AD2" t="n">
-        <v>6506187.152130688</v>
+        <v>6644466.317253082</v>
       </c>
       <c r="AE2" t="n">
-        <v>8902052.294265116</v>
+        <v>9091251.948431803</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.408674457762533e-07</v>
+        <v>1.243653391151289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.0125</v>
       </c>
       <c r="AH2" t="n">
-        <v>8052452.917408982</v>
+        <v>8223595.622125377</v>
       </c>
     </row>
     <row r="3">
@@ -55365,28 +55365,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3153.00243097657</v>
+        <v>3245.103230039779</v>
       </c>
       <c r="AB3" t="n">
-        <v>4314.077026712413</v>
+        <v>4440.093403191191</v>
       </c>
       <c r="AC3" t="n">
-        <v>3902.347570127954</v>
+        <v>4016.337120500686</v>
       </c>
       <c r="AD3" t="n">
-        <v>3153002.430976571</v>
+        <v>3245103.230039779</v>
       </c>
       <c r="AE3" t="n">
-        <v>4314077.026712414</v>
+        <v>4440093.403191191</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.715335060339168e-07</v>
+        <v>1.88533673751002e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.496875</v>
       </c>
       <c r="AH3" t="n">
-        <v>3902347.570127953</v>
+        <v>4016337.120500686</v>
       </c>
     </row>
     <row r="4">
@@ -55471,28 +55471,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2584.105178015799</v>
+        <v>2676.205887570457</v>
       </c>
       <c r="AB4" t="n">
-        <v>3535.686707235968</v>
+        <v>3661.702961245197</v>
       </c>
       <c r="AC4" t="n">
-        <v>3198.245730264694</v>
+        <v>3312.235169856201</v>
       </c>
       <c r="AD4" t="n">
-        <v>2584105.178015799</v>
+        <v>2676205.887570457</v>
       </c>
       <c r="AE4" t="n">
-        <v>3535686.707235968</v>
+        <v>3661702.961245197</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.089705462421951e-06</v>
+        <v>2.114658659335757e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.70833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3198245.730264693</v>
+        <v>3312235.1698562</v>
       </c>
     </row>
     <row r="5">
@@ -55577,28 +55577,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2340.190842058254</v>
+        <v>2432.20621075834</v>
       </c>
       <c r="AB5" t="n">
-        <v>3201.952352037789</v>
+        <v>3327.85183892482</v>
       </c>
       <c r="AC5" t="n">
-        <v>2896.362513527532</v>
+        <v>3010.2463300871</v>
       </c>
       <c r="AD5" t="n">
-        <v>2340190.842058254</v>
+        <v>2432206.21075834</v>
       </c>
       <c r="AE5" t="n">
-        <v>3201952.352037789</v>
+        <v>3327851.83892482</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.150945616904292e-06</v>
+        <v>2.233499967781906e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.925</v>
       </c>
       <c r="AH5" t="n">
-        <v>2896362.513527532</v>
+        <v>3010246.3300871</v>
       </c>
     </row>
     <row r="6">
@@ -55683,28 +55683,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2208.677031912828</v>
+        <v>2289.169233820311</v>
       </c>
       <c r="AB6" t="n">
-        <v>3022.009355016985</v>
+        <v>3132.142336732137</v>
       </c>
       <c r="AC6" t="n">
-        <v>2733.593023590819</v>
+        <v>2833.215068103682</v>
       </c>
       <c r="AD6" t="n">
-        <v>2208677.031912828</v>
+        <v>2289169.233820311</v>
       </c>
       <c r="AE6" t="n">
-        <v>3022009.355016985</v>
+        <v>3132142.336732137</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.187566613805792e-06</v>
+        <v>2.304565875847694e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.496875</v>
       </c>
       <c r="AH6" t="n">
-        <v>2733593.023590819</v>
+        <v>2833215.068103682</v>
       </c>
     </row>
     <row r="7">
@@ -55789,28 +55789,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2117.848671617258</v>
+        <v>2198.340873524743</v>
       </c>
       <c r="AB7" t="n">
-        <v>2897.733985395961</v>
+        <v>3007.866967111281</v>
       </c>
       <c r="AC7" t="n">
-        <v>2621.178320824962</v>
+        <v>2720.800365337869</v>
       </c>
       <c r="AD7" t="n">
-        <v>2117848.671617258</v>
+        <v>2198340.873524743</v>
       </c>
       <c r="AE7" t="n">
-        <v>2897733.985395961</v>
+        <v>3007866.967111281</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.212955120061034e-06</v>
+        <v>2.353834257489942e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.21458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2621178.320824962</v>
+        <v>2720800.365337869</v>
       </c>
     </row>
     <row r="8">
@@ -55895,28 +55895,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2047.053909946747</v>
+        <v>2116.19353726222</v>
       </c>
       <c r="AB8" t="n">
-        <v>2800.869469233911</v>
+        <v>2895.469357552024</v>
       </c>
       <c r="AC8" t="n">
-        <v>2533.558418135216</v>
+        <v>2619.129825884024</v>
       </c>
       <c r="AD8" t="n">
-        <v>2047053.909946747</v>
+        <v>2116193.53726222</v>
       </c>
       <c r="AE8" t="n">
-        <v>2800869.469233911</v>
+        <v>2895469.357552024</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.231265618511784e-06</v>
+        <v>2.389367211522836e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.01770833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2533558.418135216</v>
+        <v>2619129.825884024</v>
       </c>
     </row>
     <row r="9">
@@ -56001,28 +56001,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1980.083173237763</v>
+        <v>2060.660626491266</v>
       </c>
       <c r="AB9" t="n">
-        <v>2709.237152728297</v>
+        <v>2819.48677909609</v>
       </c>
       <c r="AC9" t="n">
-        <v>2450.671361310133</v>
+        <v>2550.398918073707</v>
       </c>
       <c r="AD9" t="n">
-        <v>1980083.173237763</v>
+        <v>2060660.626491266</v>
       </c>
       <c r="AE9" t="n">
-        <v>2709237.152728297</v>
+        <v>2819486.77909609</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.245421634120767e-06</v>
+        <v>2.416838066741544e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.86979166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2450671.361310133</v>
+        <v>2550398.918073707</v>
       </c>
     </row>
     <row r="10">
@@ -56107,28 +56107,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1932.942778749402</v>
+        <v>2013.520232002905</v>
       </c>
       <c r="AB10" t="n">
-        <v>2644.737585301893</v>
+        <v>2754.987211669687</v>
       </c>
       <c r="AC10" t="n">
-        <v>2392.327542073194</v>
+        <v>2492.055098836769</v>
       </c>
       <c r="AD10" t="n">
-        <v>1932942.778749402</v>
+        <v>2013520.232002905</v>
       </c>
       <c r="AE10" t="n">
-        <v>2644737.585301893</v>
+        <v>2754987.211669687</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.256038645827504e-06</v>
+        <v>2.437441208155575e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.76041666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2392327.542073194</v>
+        <v>2492055.098836768</v>
       </c>
     </row>
     <row r="11">
@@ -56213,28 +56213,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1891.798989020632</v>
+        <v>1972.376442274135</v>
       </c>
       <c r="AB11" t="n">
-        <v>2588.442837059093</v>
+        <v>2698.692463426886</v>
       </c>
       <c r="AC11" t="n">
-        <v>2341.405485592511</v>
+        <v>2441.133042356085</v>
       </c>
       <c r="AD11" t="n">
-        <v>1891798.989020632</v>
+        <v>1972376.442274135</v>
       </c>
       <c r="AE11" t="n">
-        <v>2588442.837059093</v>
+        <v>2698692.463426886</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.264501481245918e-06</v>
+        <v>2.453864002036324e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.675</v>
       </c>
       <c r="AH11" t="n">
-        <v>2341405.485592511</v>
+        <v>2441133.042356085</v>
       </c>
     </row>
     <row r="12">
@@ -56319,28 +56319,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1848.621321747351</v>
+        <v>1929.198775000854</v>
       </c>
       <c r="AB12" t="n">
-        <v>2529.365247831548</v>
+        <v>2639.614874199342</v>
       </c>
       <c r="AC12" t="n">
-        <v>2287.966178564925</v>
+        <v>2387.693735328501</v>
       </c>
       <c r="AD12" t="n">
-        <v>1848621.321747351</v>
+        <v>1929198.775000854</v>
       </c>
       <c r="AE12" t="n">
-        <v>2529365.247831549</v>
+        <v>2639614.874199342</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.272502707459691e-06</v>
+        <v>2.469391007159942e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.59583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2287966.178564926</v>
+        <v>2387693.735328501</v>
       </c>
     </row>
     <row r="13">
@@ -56425,28 +56425,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1810.232556054565</v>
+        <v>1879.457434716059</v>
       </c>
       <c r="AB13" t="n">
-        <v>2476.840045017865</v>
+        <v>2571.556577988627</v>
       </c>
       <c r="AC13" t="n">
-        <v>2240.453907388195</v>
+        <v>2326.130827387717</v>
       </c>
       <c r="AD13" t="n">
-        <v>1810232.556054565</v>
+        <v>1879457.434716059</v>
       </c>
       <c r="AE13" t="n">
-        <v>2476840.045017865</v>
+        <v>2571556.577988627</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.279119106059542e-06</v>
+        <v>2.482230646012164e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.53020833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2240453.907388195</v>
+        <v>2326130.827387717</v>
       </c>
     </row>
     <row r="14">
@@ -56531,28 +56531,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1776.955478422097</v>
+        <v>1846.009764882998</v>
       </c>
       <c r="AB14" t="n">
-        <v>2431.308879320069</v>
+        <v>2525.792000515984</v>
       </c>
       <c r="AC14" t="n">
-        <v>2199.268172241205</v>
+        <v>2284.733956958075</v>
       </c>
       <c r="AD14" t="n">
-        <v>1776955.478422097</v>
+        <v>1846009.764882998</v>
       </c>
       <c r="AE14" t="n">
-        <v>2431308.879320069</v>
+        <v>2525792.000515984</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.283427458636189e-06</v>
+        <v>2.490591341078727e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.4875</v>
       </c>
       <c r="AH14" t="n">
-        <v>2199268.172241205</v>
+        <v>2284733.956958075</v>
       </c>
     </row>
     <row r="15">
@@ -56637,28 +56637,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1745.055030460418</v>
+        <v>1814.109316921318</v>
       </c>
       <c r="AB15" t="n">
-        <v>2387.66127907046</v>
+        <v>2482.144400266375</v>
       </c>
       <c r="AC15" t="n">
-        <v>2159.786237699626</v>
+        <v>2245.252022416497</v>
       </c>
       <c r="AD15" t="n">
-        <v>1745055.030460418</v>
+        <v>1814109.316921318</v>
       </c>
       <c r="AE15" t="n">
-        <v>2387661.27907046</v>
+        <v>2482144.400266375</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.287428071743076e-06</v>
+        <v>2.498354843640536e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.45</v>
       </c>
       <c r="AH15" t="n">
-        <v>2159786.237699626</v>
+        <v>2245252.022416497</v>
       </c>
     </row>
     <row r="16">
@@ -56743,28 +56743,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1738.948784558766</v>
+        <v>1808.003071019667</v>
       </c>
       <c r="AB16" t="n">
-        <v>2379.306444039265</v>
+        <v>2473.789565235179</v>
       </c>
       <c r="AC16" t="n">
-        <v>2152.228776397724</v>
+        <v>2237.694561114594</v>
       </c>
       <c r="AD16" t="n">
-        <v>1738948.784558766</v>
+        <v>1808003.071019667</v>
       </c>
       <c r="AE16" t="n">
-        <v>2379306.444039265</v>
+        <v>2473789.565235179</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.288351290152358e-06</v>
+        <v>2.5001464211548e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.440625</v>
       </c>
       <c r="AH16" t="n">
-        <v>2152228.776397724</v>
+        <v>2237694.561114594</v>
       </c>
     </row>
     <row r="17">
@@ -56849,28 +56849,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1743.193749226883</v>
+        <v>1812.248035687784</v>
       </c>
       <c r="AB17" t="n">
-        <v>2385.114591972806</v>
+        <v>2479.597713168721</v>
       </c>
       <c r="AC17" t="n">
-        <v>2157.482602844275</v>
+        <v>2242.948387561145</v>
       </c>
       <c r="AD17" t="n">
-        <v>1743193.749226884</v>
+        <v>1812248.035687784</v>
       </c>
       <c r="AE17" t="n">
-        <v>2385114.591972806</v>
+        <v>2479597.713168721</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.289120638826759e-06</v>
+        <v>2.501639402416685e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.43333333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>2157482.602844275</v>
+        <v>2242948.387561145</v>
       </c>
     </row>
     <row r="18">
@@ -56955,28 +56955,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1751.612429878666</v>
+        <v>1820.666716339567</v>
       </c>
       <c r="AB18" t="n">
-        <v>2396.633402246553</v>
+        <v>2491.116523442467</v>
       </c>
       <c r="AC18" t="n">
-        <v>2167.902074032247</v>
+        <v>2253.367858749118</v>
       </c>
       <c r="AD18" t="n">
-        <v>1751612.429878666</v>
+        <v>1820666.716339567</v>
       </c>
       <c r="AE18" t="n">
-        <v>2396633.402246553</v>
+        <v>2491116.523442468</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.289428378296519e-06</v>
+        <v>2.50223659492144e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.43125</v>
       </c>
       <c r="AH18" t="n">
-        <v>2167902.074032247</v>
+        <v>2253367.858749118</v>
       </c>
     </row>
   </sheetData>
@@ -57252,28 +57252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10558.62034182833</v>
+        <v>10750.23904089373</v>
       </c>
       <c r="AB2" t="n">
-        <v>14446.77016514436</v>
+        <v>14708.95132282603</v>
       </c>
       <c r="AC2" t="n">
-        <v>13067.99069675171</v>
+        <v>13305.1496527178</v>
       </c>
       <c r="AD2" t="n">
-        <v>10558620.34182833</v>
+        <v>10750239.04089373</v>
       </c>
       <c r="AE2" t="n">
-        <v>14446770.16514436</v>
+        <v>14708951.32282603</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.955309491125802e-07</v>
+        <v>9.298104222648922e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.165625</v>
       </c>
       <c r="AH2" t="n">
-        <v>13067990.69675171</v>
+        <v>13305149.6527178</v>
       </c>
     </row>
     <row r="3">
@@ -57358,28 +57358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4054.921395476319</v>
+        <v>4174.61902080842</v>
       </c>
       <c r="AB3" t="n">
-        <v>5548.122343797527</v>
+        <v>5711.897915463455</v>
       </c>
       <c r="AC3" t="n">
-        <v>5018.617334143895</v>
+        <v>5166.762395110481</v>
       </c>
       <c r="AD3" t="n">
-        <v>4054921.395476319</v>
+        <v>4174619.02080842</v>
       </c>
       <c r="AE3" t="n">
-        <v>5548122.343797527</v>
+        <v>5711897.915463455</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.602844305060414e-07</v>
+        <v>1.614231020341384e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>5018617.334143896</v>
+        <v>5166762.39511048</v>
       </c>
     </row>
     <row r="4">
@@ -57464,28 +57464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3197.801421741287</v>
+        <v>3293.696067374283</v>
       </c>
       <c r="AB4" t="n">
-        <v>4375.372982268689</v>
+        <v>4506.580266996949</v>
       </c>
       <c r="AC4" t="n">
-        <v>3957.79352571535</v>
+        <v>4076.478571339719</v>
       </c>
       <c r="AD4" t="n">
-        <v>3197801.421741287</v>
+        <v>3293696.067374283</v>
       </c>
       <c r="AE4" t="n">
-        <v>4375372.982268689</v>
+        <v>4506580.266996949</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.928411835002505e-07</v>
+        <v>1.862959481593572e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.55520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3957793.52571535</v>
+        <v>4076478.571339719</v>
       </c>
     </row>
     <row r="5">
@@ -57570,28 +57570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2852.600909919988</v>
+        <v>2948.410214698413</v>
       </c>
       <c r="AB5" t="n">
-        <v>3903.054412823</v>
+        <v>4034.144930429062</v>
       </c>
       <c r="AC5" t="n">
-        <v>3530.552377634299</v>
+        <v>3649.13180022673</v>
       </c>
       <c r="AD5" t="n">
-        <v>2852600.909919988</v>
+        <v>2948410.214698413</v>
       </c>
       <c r="AE5" t="n">
-        <v>3903054.412823</v>
+        <v>4034144.930429062</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.062826404320459e-06</v>
+        <v>1.994279206102557e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.53125</v>
       </c>
       <c r="AH5" t="n">
-        <v>3530552.377634299</v>
+        <v>3649131.80022673</v>
       </c>
     </row>
     <row r="6">
@@ -57676,28 +57676,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2656.762649630861</v>
+        <v>2752.486613554714</v>
       </c>
       <c r="AB6" t="n">
-        <v>3635.099865321121</v>
+        <v>3766.073615804984</v>
       </c>
       <c r="AC6" t="n">
-        <v>3288.17103606944</v>
+        <v>3406.644835629932</v>
       </c>
       <c r="AD6" t="n">
-        <v>2656762.649630861</v>
+        <v>2752486.613554714</v>
       </c>
       <c r="AE6" t="n">
-        <v>3635099.865321121</v>
+        <v>3766073.615804984</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.106122346014317e-06</v>
+        <v>2.075519374654726e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.9625</v>
       </c>
       <c r="AH6" t="n">
-        <v>3288171.03606944</v>
+        <v>3406644.835629933</v>
       </c>
     </row>
     <row r="7">
@@ -57782,28 +57782,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2536.657847344251</v>
+        <v>2620.565662273122</v>
       </c>
       <c r="AB7" t="n">
-        <v>3470.767176182655</v>
+        <v>3585.573550319881</v>
       </c>
       <c r="AC7" t="n">
-        <v>3139.522028139977</v>
+        <v>3243.371443061301</v>
       </c>
       <c r="AD7" t="n">
-        <v>2536657.84734425</v>
+        <v>2620565.662273122</v>
       </c>
       <c r="AE7" t="n">
-        <v>3470767.176182655</v>
+        <v>3585573.550319881</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.136073648145e-06</v>
+        <v>2.131719765228487e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.59583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3139522.028139977</v>
+        <v>3243371.443061301</v>
       </c>
     </row>
     <row r="8">
@@ -57888,28 +57888,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2452.381919057442</v>
+        <v>2536.119141785722</v>
       </c>
       <c r="AB8" t="n">
-        <v>3355.457133109083</v>
+        <v>3470.030095471463</v>
       </c>
       <c r="AC8" t="n">
-        <v>3035.217013738689</v>
+        <v>3138.855293377362</v>
       </c>
       <c r="AD8" t="n">
-        <v>2452381.919057442</v>
+        <v>2536119.141785722</v>
       </c>
       <c r="AE8" t="n">
-        <v>3355457.133109083</v>
+        <v>3470030.095471463</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.157128523900232e-06</v>
+        <v>2.171226970483309e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.34895833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3035217.013738689</v>
+        <v>3138855.293377362</v>
       </c>
     </row>
     <row r="9">
@@ -57994,28 +57994,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2387.692364623997</v>
+        <v>2459.613438357295</v>
       </c>
       <c r="AB9" t="n">
-        <v>3266.946030831516</v>
+        <v>3365.351616847258</v>
       </c>
       <c r="AC9" t="n">
-        <v>2955.153286836385</v>
+        <v>3044.167181835889</v>
       </c>
       <c r="AD9" t="n">
-        <v>2387692.364623997</v>
+        <v>2459613.438357295</v>
       </c>
       <c r="AE9" t="n">
-        <v>3266946.030831516</v>
+        <v>3365351.616847258</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.173290365148967e-06</v>
+        <v>2.201552923812714e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.16354166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2955153.286836385</v>
+        <v>3044167.181835888</v>
       </c>
     </row>
     <row r="10">
@@ -58100,28 +58100,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2334.103351134713</v>
+        <v>2406.024424868011</v>
       </c>
       <c r="AB10" t="n">
-        <v>3193.623178395054</v>
+        <v>3292.028764410796</v>
       </c>
       <c r="AC10" t="n">
-        <v>2888.828264527191</v>
+        <v>2977.842159526695</v>
       </c>
       <c r="AD10" t="n">
-        <v>2334103.351134713</v>
+        <v>2406024.424868011</v>
       </c>
       <c r="AE10" t="n">
-        <v>3193623.178395054</v>
+        <v>3292028.764410796</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.185448814528749e-06</v>
+        <v>2.224366943748597e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.02916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2888828.264527191</v>
+        <v>2977842.159526695</v>
       </c>
     </row>
     <row r="11">
@@ -58206,28 +58206,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2275.607551256989</v>
+        <v>2359.430025331289</v>
       </c>
       <c r="AB11" t="n">
-        <v>3113.586644349789</v>
+        <v>3228.276251364818</v>
       </c>
       <c r="AC11" t="n">
-        <v>2816.430304959229</v>
+        <v>2920.174096848613</v>
       </c>
       <c r="AD11" t="n">
-        <v>2275607.551256989</v>
+        <v>2359430.025331289</v>
       </c>
       <c r="AE11" t="n">
-        <v>3113586.644349789</v>
+        <v>3228276.251364818</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.195827978633441e-06</v>
+        <v>2.243842326620693e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.915625</v>
       </c>
       <c r="AH11" t="n">
-        <v>2816430.304959229</v>
+        <v>2920174.096848613</v>
       </c>
     </row>
     <row r="12">
@@ -58312,28 +58312,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2236.311221489063</v>
+        <v>2320.133695563362</v>
       </c>
       <c r="AB12" t="n">
-        <v>3059.819672329593</v>
+        <v>3174.509279344622</v>
       </c>
       <c r="AC12" t="n">
-        <v>2767.794777286223</v>
+        <v>2871.538569175608</v>
       </c>
       <c r="AD12" t="n">
-        <v>2236311.221489063</v>
+        <v>2320133.695563362</v>
       </c>
       <c r="AE12" t="n">
-        <v>3059819.672329593</v>
+        <v>3174509.279344623</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.204872678781815e-06</v>
+        <v>2.260813731694947e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.81979166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2767794.777286223</v>
+        <v>2871538.569175608</v>
       </c>
     </row>
     <row r="13">
@@ -58418,28 +58418,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2203.022955169643</v>
+        <v>2286.845429243942</v>
       </c>
       <c r="AB13" t="n">
-        <v>3014.273197776697</v>
+        <v>3128.962804791726</v>
       </c>
       <c r="AC13" t="n">
-        <v>2726.595194339778</v>
+        <v>2830.338986229163</v>
       </c>
       <c r="AD13" t="n">
-        <v>2203022.955169642</v>
+        <v>2286845.429243942</v>
       </c>
       <c r="AE13" t="n">
-        <v>3014273.197776697</v>
+        <v>3128962.804791726</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.211989819882176e-06</v>
+        <v>2.274168279950098e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.74375</v>
       </c>
       <c r="AH13" t="n">
-        <v>2726595.194339778</v>
+        <v>2830338.986229163</v>
       </c>
     </row>
     <row r="14">
@@ -58524,28 +58524,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2173.146752005426</v>
+        <v>2256.969226079728</v>
       </c>
       <c r="AB14" t="n">
-        <v>2973.395258562182</v>
+        <v>3088.084865577386</v>
       </c>
       <c r="AC14" t="n">
-        <v>2689.618588271463</v>
+        <v>2793.362380160893</v>
       </c>
       <c r="AD14" t="n">
-        <v>2173146.752005426</v>
+        <v>2256969.226079728</v>
       </c>
       <c r="AE14" t="n">
-        <v>2973395.258562183</v>
+        <v>3088084.865577386</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.217179401934521e-06</v>
+        <v>2.283905971386146e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.68854166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2689618.588271463</v>
+        <v>2793362.380160893</v>
       </c>
     </row>
     <row r="15">
@@ -58630,28 +58630,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2141.759558427918</v>
+        <v>2225.58203250222</v>
       </c>
       <c r="AB15" t="n">
-        <v>2930.449915604183</v>
+        <v>3045.139522619384</v>
       </c>
       <c r="AC15" t="n">
-        <v>2650.771888571207</v>
+        <v>2754.515680460637</v>
       </c>
       <c r="AD15" t="n">
-        <v>2141759.558427918</v>
+        <v>2225582.03250222</v>
       </c>
       <c r="AE15" t="n">
-        <v>2930449.915604183</v>
+        <v>3045139.522619384</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.22281380530564e-06</v>
+        <v>2.294478322088141e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.63020833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>2650771.888571207</v>
+        <v>2754515.680460637</v>
       </c>
     </row>
     <row r="16">
@@ -58736,28 +58736,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2114.206521606563</v>
+        <v>2198.028995680866</v>
       </c>
       <c r="AB16" t="n">
-        <v>2892.750635071012</v>
+        <v>3007.440242086209</v>
       </c>
       <c r="AC16" t="n">
-        <v>2616.670574460849</v>
+        <v>2720.414366350278</v>
       </c>
       <c r="AD16" t="n">
-        <v>2114206.521606564</v>
+        <v>2198028.995680866</v>
       </c>
       <c r="AE16" t="n">
-        <v>2892750.635071012</v>
+        <v>3007440.242086209</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.227410292266289e-06</v>
+        <v>2.303103134502926e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12.58333333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>2616670.574460849</v>
+        <v>2720414.366350278</v>
       </c>
     </row>
     <row r="17">
@@ -58842,28 +58842,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2086.995208229059</v>
+        <v>2170.817682303358</v>
       </c>
       <c r="AB17" t="n">
-        <v>2855.518915629488</v>
+        <v>2970.208522644511</v>
       </c>
       <c r="AC17" t="n">
-        <v>2582.992198067778</v>
+        <v>2686.735989957161</v>
       </c>
       <c r="AD17" t="n">
-        <v>2086995.208229059</v>
+        <v>2170817.682303358</v>
       </c>
       <c r="AE17" t="n">
-        <v>2855518.915629488</v>
+        <v>2970208.52264451</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.231413684135242e-06</v>
+        <v>2.310615067896448e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.54270833333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>2582992.198067778</v>
+        <v>2686735.989957161</v>
       </c>
     </row>
     <row r="18">
@@ -58948,28 +58948,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2062.587563906408</v>
+        <v>2134.593888985726</v>
       </c>
       <c r="AB18" t="n">
-        <v>2822.123299877966</v>
+        <v>2920.645530546352</v>
       </c>
       <c r="AC18" t="n">
-        <v>2552.78381301254</v>
+        <v>2641.903220262755</v>
       </c>
       <c r="AD18" t="n">
-        <v>2062587.563906408</v>
+        <v>2134593.888985726</v>
       </c>
       <c r="AE18" t="n">
-        <v>2822123.299877966</v>
+        <v>2920645.530546352</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.23452743336665e-06</v>
+        <v>2.316457682758077e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.51145833333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>2552783.81301254</v>
+        <v>2641903.220262755</v>
       </c>
     </row>
     <row r="19">
@@ -59054,28 +59054,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2036.939168570875</v>
+        <v>2108.774901449601</v>
       </c>
       <c r="AB19" t="n">
-        <v>2787.030033852547</v>
+        <v>2885.318852746086</v>
       </c>
       <c r="AC19" t="n">
-        <v>2521.039799042879</v>
+        <v>2609.948071010443</v>
       </c>
       <c r="AD19" t="n">
-        <v>2036939.168570875</v>
+        <v>2108774.901449601</v>
       </c>
       <c r="AE19" t="n">
-        <v>2787030.033852547</v>
+        <v>2885318.852746086</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.238382551462678e-06</v>
+        <v>2.323691396396284e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12.471875</v>
       </c>
       <c r="AH19" t="n">
-        <v>2521039.799042879</v>
+        <v>2609948.071010442</v>
       </c>
     </row>
     <row r="20">
@@ -59160,28 +59160,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2014.397882821977</v>
+        <v>2086.233615700703</v>
       </c>
       <c r="AB20" t="n">
-        <v>2756.188052239561</v>
+        <v>2854.4768711331</v>
       </c>
       <c r="AC20" t="n">
-        <v>2493.141332868043</v>
+        <v>2582.049604835607</v>
       </c>
       <c r="AD20" t="n">
-        <v>2014397.882821976</v>
+        <v>2086233.615700703</v>
       </c>
       <c r="AE20" t="n">
-        <v>2756188.052239561</v>
+        <v>2854476.8711331</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.240754931829465e-06</v>
+        <v>2.328142912481334e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>2493141.332868043</v>
+        <v>2582049.604835607</v>
       </c>
     </row>
     <row r="21">
@@ -59266,28 +59266,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1992.685698621274</v>
+        <v>2064.5214315</v>
       </c>
       <c r="AB21" t="n">
-        <v>2726.480483942196</v>
+        <v>2824.769302835735</v>
       </c>
       <c r="AC21" t="n">
-        <v>2466.269013194145</v>
+        <v>2555.177285161708</v>
       </c>
       <c r="AD21" t="n">
-        <v>1992685.698621274</v>
+        <v>2064521.4315</v>
       </c>
       <c r="AE21" t="n">
-        <v>2726480.483942196</v>
+        <v>2824769.302835735</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.243127312196252e-06</v>
+        <v>2.332594428566384e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>12.42395833333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>2466269.013194145</v>
+        <v>2555177.285161708</v>
       </c>
     </row>
     <row r="22">
@@ -59372,28 +59372,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1975.258393997838</v>
+        <v>2047.094126876564</v>
       </c>
       <c r="AB22" t="n">
-        <v>2702.635676917993</v>
+        <v>2800.924495811532</v>
       </c>
       <c r="AC22" t="n">
-        <v>2444.699921085935</v>
+        <v>2533.608193053498</v>
       </c>
       <c r="AD22" t="n">
-        <v>1975258.393997838</v>
+        <v>2047094.126876564</v>
       </c>
       <c r="AE22" t="n">
-        <v>2702635.676917993</v>
+        <v>2800924.495811532</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.244610049925493e-06</v>
+        <v>2.335376626119541e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12.409375</v>
       </c>
       <c r="AH22" t="n">
-        <v>2444699.921085935</v>
+        <v>2533608.193053498</v>
       </c>
     </row>
     <row r="23">
@@ -59478,28 +59478,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1965.342070701894</v>
+        <v>2037.177803580621</v>
       </c>
       <c r="AB23" t="n">
-        <v>2689.067725907175</v>
+        <v>2787.356544800713</v>
       </c>
       <c r="AC23" t="n">
-        <v>2432.426876276851</v>
+        <v>2521.335148244415</v>
       </c>
       <c r="AD23" t="n">
-        <v>1965342.070701895</v>
+        <v>2037177.803580621</v>
       </c>
       <c r="AE23" t="n">
-        <v>2689067.725907175</v>
+        <v>2787356.544800714</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.246389335200583e-06</v>
+        <v>2.338715263183329e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.39166666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>2432426.876276851</v>
+        <v>2521335.148244415</v>
       </c>
     </row>
     <row r="24">
@@ -59584,28 +59584,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1965.604180232071</v>
+        <v>2037.439913110798</v>
       </c>
       <c r="AB24" t="n">
-        <v>2689.42635572982</v>
+        <v>2787.715174623359</v>
       </c>
       <c r="AC24" t="n">
-        <v>2432.751278972562</v>
+        <v>2521.659550940126</v>
       </c>
       <c r="AD24" t="n">
-        <v>1965604.180232071</v>
+        <v>2037439.913110798</v>
       </c>
       <c r="AE24" t="n">
-        <v>2689426.35572982</v>
+        <v>2787715.174623359</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.246241061427659e-06</v>
+        <v>2.338437043428013e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.39270833333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>2432751.278972562</v>
+        <v>2521659.550940126</v>
       </c>
     </row>
     <row r="25">
@@ -59690,28 +59690,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1968.686224624542</v>
+        <v>2040.521957503269</v>
       </c>
       <c r="AB25" t="n">
-        <v>2693.643344837801</v>
+        <v>2791.93216373134</v>
       </c>
       <c r="AC25" t="n">
-        <v>2436.565804558659</v>
+        <v>2525.474076526223</v>
       </c>
       <c r="AD25" t="n">
-        <v>1968686.224624542</v>
+        <v>2040521.957503269</v>
       </c>
       <c r="AE25" t="n">
-        <v>2693643.344837801</v>
+        <v>2791932.16373134</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.247130704065204e-06</v>
+        <v>2.340106361959906e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.384375</v>
       </c>
       <c r="AH25" t="n">
-        <v>2436565.804558659</v>
+        <v>2525474.076526223</v>
       </c>
     </row>
     <row r="26">
@@ -59796,28 +59796,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1977.702885495917</v>
+        <v>2049.538618374644</v>
       </c>
       <c r="AB26" t="n">
-        <v>2705.98033802902</v>
+        <v>2804.269156922559</v>
       </c>
       <c r="AC26" t="n">
-        <v>2447.725372434787</v>
+        <v>2536.63364440235</v>
       </c>
       <c r="AD26" t="n">
-        <v>1977702.885495917</v>
+        <v>2049538.618374644</v>
       </c>
       <c r="AE26" t="n">
-        <v>2705980.33802902</v>
+        <v>2804269.156922559</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.247130704065204e-06</v>
+        <v>2.340106361959906e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12.384375</v>
       </c>
       <c r="AH26" t="n">
-        <v>2447725.372434787</v>
+        <v>2536633.64440235</v>
       </c>
     </row>
   </sheetData>
@@ -60093,28 +60093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>869.6222723605682</v>
+        <v>933.6583717571814</v>
       </c>
       <c r="AB2" t="n">
-        <v>1189.855558070719</v>
+        <v>1277.472574338487</v>
       </c>
       <c r="AC2" t="n">
-        <v>1076.297413581213</v>
+        <v>1155.55238478764</v>
       </c>
       <c r="AD2" t="n">
-        <v>869622.2723605682</v>
+        <v>933658.3717571814</v>
       </c>
       <c r="AE2" t="n">
-        <v>1189855.558070719</v>
+        <v>1277472.574338487</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.404536382226609e-06</v>
+        <v>3.512638902340495e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.12916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1076297.413581213</v>
+        <v>1155552.38478764</v>
       </c>
     </row>
     <row r="3">
@@ -60199,28 +60199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>886.7064101414312</v>
+        <v>950.7425095380445</v>
       </c>
       <c r="AB3" t="n">
-        <v>1213.230829081461</v>
+        <v>1300.847845349229</v>
       </c>
       <c r="AC3" t="n">
-        <v>1097.441781534089</v>
+        <v>1176.696752740516</v>
       </c>
       <c r="AD3" t="n">
-        <v>886706.4101414313</v>
+        <v>950742.5095380445</v>
       </c>
       <c r="AE3" t="n">
-        <v>1213230.829081461</v>
+        <v>1300847.845349229</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.404345859114533e-06</v>
+        <v>3.512162418495902e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.13125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1097441.781534089</v>
+        <v>1176696.752740516</v>
       </c>
     </row>
   </sheetData>
@@ -60496,28 +60496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3528.084984494461</v>
+        <v>3636.22445423789</v>
       </c>
       <c r="AB2" t="n">
-        <v>4827.28152391002</v>
+        <v>4975.242717189689</v>
       </c>
       <c r="AC2" t="n">
-        <v>4366.572550400037</v>
+        <v>4500.412535057928</v>
       </c>
       <c r="AD2" t="n">
-        <v>3528084.984494461</v>
+        <v>3636224.45423789</v>
       </c>
       <c r="AE2" t="n">
-        <v>4827281.52391002</v>
+        <v>4975242.717189689</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.689179413398696e-07</v>
+        <v>1.789348343064153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>4366572.550400036</v>
+        <v>4500412.535057927</v>
       </c>
     </row>
     <row r="3">
@@ -60602,28 +60602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2156.883922125905</v>
+        <v>2243.310157066078</v>
       </c>
       <c r="AB3" t="n">
-        <v>2951.143737255602</v>
+        <v>3069.395924757313</v>
       </c>
       <c r="AC3" t="n">
-        <v>2669.490720928177</v>
+        <v>2776.457085622596</v>
       </c>
       <c r="AD3" t="n">
-        <v>2156883.922125904</v>
+        <v>2243310.157066078</v>
       </c>
       <c r="AE3" t="n">
-        <v>2951143.737255603</v>
+        <v>3069395.924757313</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.142934912880614e-06</v>
+        <v>2.353626959801919e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.88333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2669490.720928177</v>
+        <v>2776457.085622596</v>
       </c>
     </row>
     <row r="4">
@@ -60708,28 +60708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1853.704179252267</v>
+        <v>1929.401808072668</v>
       </c>
       <c r="AB4" t="n">
-        <v>2536.319837709622</v>
+        <v>2639.892673005384</v>
       </c>
       <c r="AC4" t="n">
-        <v>2294.257032145865</v>
+        <v>2387.945021406387</v>
       </c>
       <c r="AD4" t="n">
-        <v>1853704.179252267</v>
+        <v>1929401.808072668</v>
       </c>
       <c r="AE4" t="n">
-        <v>2536319.837709622</v>
+        <v>2639892.673005384</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.23748546503919e-06</v>
+        <v>2.548333347818108e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.74583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2294257.032145865</v>
+        <v>2387945.021406387</v>
       </c>
     </row>
     <row r="5">
@@ -60814,28 +60814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1712.090036604929</v>
+        <v>1787.617073224737</v>
       </c>
       <c r="AB5" t="n">
-        <v>2342.557120164491</v>
+        <v>2445.896543685407</v>
       </c>
       <c r="AC5" t="n">
-        <v>2118.986756415559</v>
+        <v>2212.46361039343</v>
       </c>
       <c r="AD5" t="n">
-        <v>1712090.036604929</v>
+        <v>1787617.073224737</v>
       </c>
       <c r="AE5" t="n">
-        <v>2342557.120164491</v>
+        <v>2445896.543685407</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.285658889714113e-06</v>
+        <v>2.647536084372125e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.23125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2118986.756415559</v>
+        <v>2212463.61039343</v>
       </c>
     </row>
     <row r="6">
@@ -60920,28 +60920,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1603.4506224748</v>
+        <v>1679.062910440628</v>
       </c>
       <c r="AB6" t="n">
-        <v>2193.911880918959</v>
+        <v>2297.367949092523</v>
       </c>
       <c r="AC6" t="n">
-        <v>1984.528010178716</v>
+        <v>2078.1103764073</v>
       </c>
       <c r="AD6" t="n">
-        <v>1603450.622474799</v>
+        <v>1679062.910440628</v>
       </c>
       <c r="AE6" t="n">
-        <v>2193911.880918959</v>
+        <v>2297367.949092523</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.315706042731691e-06</v>
+        <v>2.7094116895448e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.92916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1984528.010178716</v>
+        <v>2078110.3764073</v>
       </c>
     </row>
     <row r="7">
@@ -61026,28 +61026,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1527.544179574772</v>
+        <v>1603.156467540601</v>
       </c>
       <c r="AB7" t="n">
-        <v>2090.053336987224</v>
+        <v>2193.509405160788</v>
       </c>
       <c r="AC7" t="n">
-        <v>1890.581579913445</v>
+        <v>1984.163946142028</v>
       </c>
       <c r="AD7" t="n">
-        <v>1527544.179574772</v>
+        <v>1603156.467540601</v>
       </c>
       <c r="AE7" t="n">
-        <v>2090053.336987224</v>
+        <v>2193509.405160788</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.335302012090982e-06</v>
+        <v>2.749765345092197e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.73854166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1890581.579913445</v>
+        <v>1984163.946142028</v>
       </c>
     </row>
     <row r="8">
@@ -61132,28 +61132,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1467.700442524897</v>
+        <v>1543.312730490726</v>
       </c>
       <c r="AB8" t="n">
-        <v>2008.172495836237</v>
+        <v>2111.628564009801</v>
       </c>
       <c r="AC8" t="n">
-        <v>1816.515331321425</v>
+        <v>1910.097697550008</v>
       </c>
       <c r="AD8" t="n">
-        <v>1467700.442524897</v>
+        <v>1543312.730490726</v>
       </c>
       <c r="AE8" t="n">
-        <v>2008172.495836237</v>
+        <v>2111628.564009801</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.349509089876467e-06</v>
+        <v>2.77902174536406e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1816515.331321425</v>
+        <v>1910097.697550009</v>
       </c>
     </row>
     <row r="9">
@@ -61238,28 +61238,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1450.061379323842</v>
+        <v>1525.67366728967</v>
       </c>
       <c r="AB9" t="n">
-        <v>1984.037951384005</v>
+        <v>2087.49401955757</v>
       </c>
       <c r="AC9" t="n">
-        <v>1794.684153918669</v>
+        <v>1888.266520147252</v>
       </c>
       <c r="AD9" t="n">
-        <v>1450061.379323842</v>
+        <v>1525673.667289671</v>
       </c>
       <c r="AE9" t="n">
-        <v>1984037.951384005</v>
+        <v>2087494.01955757</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.354081482726968e-06</v>
+        <v>2.788437598325119e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.56145833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1794684.153918669</v>
+        <v>1888266.520147252</v>
       </c>
     </row>
     <row r="10">
@@ -61344,28 +61344,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1454.759652809131</v>
+        <v>1530.37194077496</v>
       </c>
       <c r="AB10" t="n">
-        <v>1990.466336439775</v>
+        <v>2093.92240461334</v>
       </c>
       <c r="AC10" t="n">
-        <v>1800.499022927012</v>
+        <v>1894.081389155595</v>
       </c>
       <c r="AD10" t="n">
-        <v>1454759.652809131</v>
+        <v>1530371.94077496</v>
       </c>
       <c r="AE10" t="n">
-        <v>1990466.336439775</v>
+        <v>2093922.40461334</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.354734681705611e-06</v>
+        <v>2.789782720176699e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.55729166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1800499.022927012</v>
+        <v>1894081.389155595</v>
       </c>
     </row>
   </sheetData>
@@ -61641,28 +61641,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5126.027754255868</v>
+        <v>5261.078101346578</v>
       </c>
       <c r="AB2" t="n">
-        <v>7013.657317757326</v>
+        <v>7198.439160647669</v>
       </c>
       <c r="AC2" t="n">
-        <v>6344.283707080172</v>
+        <v>6511.430230227998</v>
       </c>
       <c r="AD2" t="n">
-        <v>5126027.754255868</v>
+        <v>5261078.101346578</v>
       </c>
       <c r="AE2" t="n">
-        <v>7013657.317757326</v>
+        <v>7198439.160647669</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.238530885504078e-07</v>
+        <v>1.434086238300996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.62708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6344283.707080172</v>
+        <v>6511430.230227998</v>
       </c>
     </row>
     <row r="3">
@@ -61747,28 +61747,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2739.039295582043</v>
+        <v>2829.129754212232</v>
       </c>
       <c r="AB3" t="n">
-        <v>3747.674402100978</v>
+        <v>3870.940142109336</v>
       </c>
       <c r="AC3" t="n">
-        <v>3390.001617058377</v>
+        <v>3501.503047844886</v>
       </c>
       <c r="AD3" t="n">
-        <v>2739039.295582043</v>
+        <v>2829129.754212231</v>
       </c>
       <c r="AE3" t="n">
-        <v>3747674.402100977</v>
+        <v>3870940.142109336</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.034682271014386e-06</v>
+        <v>2.049896076077075e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.82916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3390001.617058377</v>
+        <v>3501503.047844886</v>
       </c>
     </row>
     <row r="4">
@@ -61853,28 +61853,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2301.517342100022</v>
+        <v>2380.261242055416</v>
       </c>
       <c r="AB4" t="n">
-        <v>3149.037563240528</v>
+        <v>3256.778441095192</v>
       </c>
       <c r="AC4" t="n">
-        <v>2848.497837906711</v>
+        <v>2945.956077594194</v>
       </c>
       <c r="AD4" t="n">
-        <v>2301517.342100022</v>
+        <v>2380261.242055416</v>
       </c>
       <c r="AE4" t="n">
-        <v>3149037.563240528</v>
+        <v>3256778.441095192</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.142851455402457e-06</v>
+        <v>2.264199145571229e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.33020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2848497.837906711</v>
+        <v>2945956.077594194</v>
       </c>
     </row>
     <row r="5">
@@ -61959,28 +61959,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2097.254773736156</v>
+        <v>2176.083925037571</v>
       </c>
       <c r="AB5" t="n">
-        <v>2869.556505776384</v>
+        <v>2977.414028283692</v>
       </c>
       <c r="AC5" t="n">
-        <v>2595.690060312936</v>
+        <v>2693.25381225113</v>
       </c>
       <c r="AD5" t="n">
-        <v>2097254.773736156</v>
+        <v>2176083.925037571</v>
       </c>
       <c r="AE5" t="n">
-        <v>2869556.505776384</v>
+        <v>2977414.028283692</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.199451610024123e-06</v>
+        <v>2.376334472632124e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.653125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2595690.060312936</v>
+        <v>2693253.81225113</v>
       </c>
     </row>
     <row r="6">
@@ -62065,28 +62065,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1981.489644752933</v>
+        <v>2060.148203853756</v>
       </c>
       <c r="AB6" t="n">
-        <v>2711.161549104496</v>
+        <v>2818.785659836957</v>
       </c>
       <c r="AC6" t="n">
-        <v>2452.412095997096</v>
+        <v>2549.764712652639</v>
       </c>
       <c r="AD6" t="n">
-        <v>1981489.644752933</v>
+        <v>2060148.203853756</v>
       </c>
       <c r="AE6" t="n">
-        <v>2711161.549104496</v>
+        <v>2818785.659836957</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.234040593404029e-06</v>
+        <v>2.444861616947115e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.271875</v>
       </c>
       <c r="AH6" t="n">
-        <v>2452412.095997096</v>
+        <v>2549764.712652639</v>
       </c>
     </row>
     <row r="7">
@@ -62171,28 +62171,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1899.771052359952</v>
+        <v>1967.338985841144</v>
       </c>
       <c r="AB7" t="n">
-        <v>2599.350565822563</v>
+        <v>2691.799993298375</v>
       </c>
       <c r="AC7" t="n">
-        <v>2351.27219603189</v>
+        <v>2434.898379902996</v>
       </c>
       <c r="AD7" t="n">
-        <v>1899771.052359952</v>
+        <v>1967338.985841144</v>
       </c>
       <c r="AE7" t="n">
-        <v>2599350.565822563</v>
+        <v>2691799.993298375</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.257466768511329e-06</v>
+        <v>2.49127318286954e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.02395833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2351272.196031889</v>
+        <v>2434898.379902996</v>
       </c>
     </row>
     <row r="8">
@@ -62277,28 +62277,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1824.127993142522</v>
+        <v>1902.871803589366</v>
       </c>
       <c r="AB8" t="n">
-        <v>2495.852395065026</v>
+        <v>2603.593150450136</v>
       </c>
       <c r="AC8" t="n">
-        <v>2257.651745430857</v>
+        <v>2355.109874337112</v>
       </c>
       <c r="AD8" t="n">
-        <v>1824127.993142522</v>
+        <v>1902871.803589366</v>
       </c>
       <c r="AE8" t="n">
-        <v>2495852.395065026</v>
+        <v>2603593.150450137</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.274289592246102e-06</v>
+        <v>2.524602293968196e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.85208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2257651.745430857</v>
+        <v>2355109.874337112</v>
       </c>
     </row>
     <row r="9">
@@ -62383,28 +62383,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1766.781839793244</v>
+        <v>1845.525650240087</v>
       </c>
       <c r="AB9" t="n">
-        <v>2417.388858118812</v>
+        <v>2525.129613503922</v>
       </c>
       <c r="AC9" t="n">
-        <v>2186.676658326523</v>
+        <v>2284.134787232778</v>
       </c>
       <c r="AD9" t="n">
-        <v>1766781.839793244</v>
+        <v>1845525.650240087</v>
       </c>
       <c r="AE9" t="n">
-        <v>2417388.858118812</v>
+        <v>2525129.613503922</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.287339072339431e-06</v>
+        <v>2.550455716596124e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.721875</v>
       </c>
       <c r="AH9" t="n">
-        <v>2186676.658326523</v>
+        <v>2284134.787232778</v>
       </c>
     </row>
     <row r="10">
@@ -62489,28 +62489,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1721.049890453324</v>
+        <v>1799.793700900167</v>
       </c>
       <c r="AB10" t="n">
-        <v>2354.81638748072</v>
+        <v>2462.55714286583</v>
       </c>
       <c r="AC10" t="n">
-        <v>2130.076016465117</v>
+        <v>2227.534145371372</v>
       </c>
       <c r="AD10" t="n">
-        <v>1721049.890453324</v>
+        <v>1799793.700900167</v>
       </c>
       <c r="AE10" t="n">
-        <v>2354816.38748072</v>
+        <v>2462557.14286583</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.296929654094768e-06</v>
+        <v>2.569456424792553e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.628125</v>
       </c>
       <c r="AH10" t="n">
-        <v>2130076.016465117</v>
+        <v>2227534.145371372</v>
       </c>
     </row>
     <row r="11">
@@ -62595,28 +62595,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1671.272897297124</v>
+        <v>1750.016707743967</v>
       </c>
       <c r="AB11" t="n">
-        <v>2286.709309438456</v>
+        <v>2394.450064823566</v>
       </c>
       <c r="AC11" t="n">
-        <v>2068.468982362322</v>
+        <v>2165.927111268577</v>
       </c>
       <c r="AD11" t="n">
-        <v>1671272.897297124</v>
+        <v>1750016.707743967</v>
       </c>
       <c r="AE11" t="n">
-        <v>2286709.309438456</v>
+        <v>2394450.064823566</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.305734122591472e-06</v>
+        <v>2.586899697890915e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.54270833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2068468.982362322</v>
+        <v>2165927.111268577</v>
       </c>
     </row>
     <row r="12">
@@ -62701,28 +62701,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1636.239080848969</v>
+        <v>1703.72167347559</v>
       </c>
       <c r="AB12" t="n">
-        <v>2238.77449619119</v>
+        <v>2331.107156544805</v>
       </c>
       <c r="AC12" t="n">
-        <v>2025.109000414443</v>
+        <v>2108.629561253611</v>
       </c>
       <c r="AD12" t="n">
-        <v>1636239.080848969</v>
+        <v>1703721.67347559</v>
       </c>
       <c r="AE12" t="n">
-        <v>2238774.496191191</v>
+        <v>2331107.156544805</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.311236915401911e-06</v>
+        <v>2.59780174357739e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.48958333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2025109.000414443</v>
+        <v>2108629.561253611</v>
       </c>
     </row>
     <row r="13">
@@ -62807,28 +62807,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1624.572421966325</v>
+        <v>1692.055014592946</v>
       </c>
       <c r="AB13" t="n">
-        <v>2222.811658811293</v>
+        <v>2315.144319164907</v>
       </c>
       <c r="AC13" t="n">
-        <v>2010.669633830099</v>
+        <v>2094.190194669267</v>
       </c>
       <c r="AD13" t="n">
-        <v>1624572.421966325</v>
+        <v>1692055.014592946</v>
       </c>
       <c r="AE13" t="n">
-        <v>2222811.658811293</v>
+        <v>2315144.319164907</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.313438032526087e-06</v>
+        <v>2.602162561851981e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.46875</v>
       </c>
       <c r="AH13" t="n">
-        <v>2010669.633830099</v>
+        <v>2094190.194669267</v>
       </c>
     </row>
     <row r="14">
@@ -62913,28 +62913,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1629.426572336021</v>
+        <v>1696.909164962642</v>
       </c>
       <c r="AB14" t="n">
-        <v>2229.453321497111</v>
+        <v>2321.785981850725</v>
       </c>
       <c r="AC14" t="n">
-        <v>2016.677425550815</v>
+        <v>2100.197986389983</v>
       </c>
       <c r="AD14" t="n">
-        <v>1629426.572336021</v>
+        <v>1696909.164962642</v>
       </c>
       <c r="AE14" t="n">
-        <v>2229453.321497111</v>
+        <v>2321785.981850726</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.313280809874361e-06</v>
+        <v>2.601851074832367e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.47083333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2016677.425550815</v>
+        <v>2100197.986389983</v>
       </c>
     </row>
     <row r="15">
@@ -63019,28 +63019,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1635.714684207857</v>
+        <v>1703.197276834478</v>
       </c>
       <c r="AB15" t="n">
-        <v>2238.056993572074</v>
+        <v>2330.389653925688</v>
       </c>
       <c r="AC15" t="n">
-        <v>2024.459975238273</v>
+        <v>2107.980536077441</v>
       </c>
       <c r="AD15" t="n">
-        <v>1635714.684207857</v>
+        <v>1703197.276834478</v>
       </c>
       <c r="AE15" t="n">
-        <v>2238056.993572074</v>
+        <v>2330389.653925688</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.314224145784722e-06</v>
+        <v>2.603719996950049e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.4625</v>
       </c>
       <c r="AH15" t="n">
-        <v>2024459.975238273</v>
+        <v>2107980.536077441</v>
       </c>
     </row>
   </sheetData>
